--- a/BackTest/2019-11-01 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-01 BackTest ETZ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.599999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-28.57142857142868</v>
+      </c>
       <c r="L12" t="n">
         <v>31.75</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.799999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L13" t="n">
         <v>31.73</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.799999999999997</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L14" t="n">
         <v>31.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.899999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-6.666666666666761</v>
+      </c>
       <c r="L15" t="n">
         <v>31.68</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.099999999999998</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>27.27272727272739</v>
+      </c>
       <c r="L16" t="n">
         <v>31.65</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.299999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>63.63636363636369</v>
+      </c>
       <c r="L17" t="n">
         <v>31.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.499999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>38.46153846153855</v>
+      </c>
       <c r="L18" t="n">
         <v>31.74999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.699999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>38.46153846153855</v>
+      </c>
       <c r="L19" t="n">
         <v>31.81999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.699999999999996</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>31.86999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333353</v>
+      </c>
       <c r="L21" t="n">
         <v>31.91999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.099999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>38.46153846153855</v>
+      </c>
       <c r="L22" t="n">
         <v>31.98999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.099999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>10.3448275862068</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L23" t="n">
         <v>32.03999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K24" t="n">
-        <v>-11.76470588235302</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>32.02999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.76470588235302</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>32.01</v>
@@ -1564,7 +1586,7 @@
         <v>3.799999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.76470588235302</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L26" t="n">
         <v>31.99999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K27" t="n">
-        <v>16.12903225806455</v>
+        <v>12.49999999999997</v>
       </c>
       <c r="L27" t="n">
         <v>31.99999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K28" t="n">
-        <v>24.13793103448278</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>32.02</v>
@@ -1711,7 +1733,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K29" t="n">
-        <v>12.49999999999997</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L29" t="n">
         <v>31.98999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K30" t="n">
-        <v>12.49999999999997</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L30" t="n">
         <v>31.97999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>12.49999999999997</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L31" t="n">
         <v>31.96999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K32" t="n">
-        <v>9.67741935483874</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L32" t="n">
         <v>31.92999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>9.677419354838843</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>31.90999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>9.677419354838843</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>31.94999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>6.666666666666761</v>
+        <v>45.45454545454557</v>
       </c>
       <c r="L35" t="n">
         <v>31.98999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>32.01999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>5.300000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>6.666666666666746</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L37" t="n">
         <v>32.03999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K38" t="n">
-        <v>6.666666666666619</v>
+        <v>27.27272727272704</v>
       </c>
       <c r="L38" t="n">
         <v>32.03999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>6.66666666666673</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L39" t="n">
         <v>32.08999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K40" t="n">
-        <v>-15.78947368421049</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L40" t="n">
         <v>32.03999999999998</v>
@@ -2319,7 +2341,7 @@
         <v>7.200000000000017</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>4.000000000000023</v>
       </c>
       <c r="L41" t="n">
         <v>32.04999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>7.300000000000018</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.761904761904633</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>32.06999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>7.500000000000021</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.090909090909003</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L43" t="n">
         <v>32.04999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>8.000000000000021</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.976744186046481</v>
+        <v>-22.58064516129025</v>
       </c>
       <c r="L44" t="n">
         <v>31.97999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>8.000000000000021</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.976744186046481</v>
+        <v>-17.24137931034471</v>
       </c>
       <c r="L45" t="n">
         <v>31.90999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>8.300000000000022</v>
       </c>
       <c r="K46" t="n">
-        <v>2.22222222222224</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>31.88999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>8.40000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.325581395348856</v>
+        <v>-3.448275862068999</v>
       </c>
       <c r="L47" t="n">
         <v>31.85999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>8.500000000000021</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-7.142857142857216</v>
       </c>
       <c r="L48" t="n">
         <v>31.85999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>8.500000000000021</v>
       </c>
       <c r="K49" t="n">
-        <v>7.317073170731677</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="L49" t="n">
         <v>31.83999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>8.500000000000021</v>
       </c>
       <c r="K50" t="n">
-        <v>2.564102564102583</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L50" t="n">
         <v>31.9</v>
@@ -2829,7 +2851,7 @@
         <v>8.500000000000021</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L51" t="n">
         <v>31.88999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>8.500000000000021</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.5555555555556</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>31.86999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K54" t="n">
-        <v>-17.07317073170729</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>31.86999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>9.100000000000023</v>
       </c>
       <c r="K55" t="n">
-        <v>-19.04761904761904</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L55" t="n">
         <v>31.85999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>9.400000000000023</v>
       </c>
       <c r="K56" t="n">
-        <v>-6.976744186046492</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L56" t="n">
         <v>31.84999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>9.600000000000023</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.976744186046581</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L57" t="n">
         <v>31.84999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>9.600000000000023</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.439024390243928</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L58" t="n">
         <v>31.83999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>-21.73913043478263</v>
+        <v>-44.44444444444446</v>
       </c>
       <c r="L59" t="n">
         <v>31.75999999999998</v>
@@ -3288,7 +3310,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>9.09090909090912</v>
+        <v>-8.333333333333297</v>
       </c>
       <c r="L60" t="n">
         <v>31.73999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.108108108108112</v>
+        <v>-8.333333333333297</v>
       </c>
       <c r="L61" t="n">
         <v>31.71999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>-11.11111111111116</v>
+        <v>-8.333333333333297</v>
       </c>
       <c r="L62" t="n">
         <v>31.69999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>-8.571428571428582</v>
+        <v>9.999999999999947</v>
       </c>
       <c r="L63" t="n">
         <v>31.66999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>6.666666666666635</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L64" t="n">
         <v>31.68999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>11.10000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>9.677419354838717</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L65" t="n">
         <v>31.72999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>11.60000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>-15.15151515151513</v>
+        <v>-29.99999999999984</v>
       </c>
       <c r="L66" t="n">
         <v>31.68999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>12.00000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.555555555555528</v>
+        <v>-8.333333333333297</v>
       </c>
       <c r="L67" t="n">
         <v>31.66999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-17.94871794871792</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L68" t="n">
         <v>31.61</v>
@@ -3747,7 +3769,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-17.94871794871792</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>31.62</v>
@@ -3798,7 +3820,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L70" t="n">
         <v>31.64</v>
@@ -3849,7 +3871,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L71" t="n">
         <v>31.66</v>
@@ -3900,7 +3922,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L72" t="n">
         <v>31.68</v>
@@ -3951,7 +3973,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>-2.127659574468114</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L73" t="n">
         <v>31.7</v>
@@ -4002,7 +4024,7 @@
         <v>13.30000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>11.62790697674417</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L74" t="n">
         <v>31.73</v>
@@ -4053,7 +4075,7 @@
         <v>13.40000000000003</v>
       </c>
       <c r="K75" t="n">
-        <v>11.62790697674417</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L75" t="n">
         <v>31.73999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>13.40000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>4.999999999999978</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L76" t="n">
         <v>31.79999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>13.50000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>2.564102564102597</v>
+        <v>63.63636363636328</v>
       </c>
       <c r="L77" t="n">
         <v>31.82999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L78" t="n">
         <v>31.88999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>14.00000000000003</v>
       </c>
       <c r="K79" t="n">
-        <v>8.108108108108112</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L79" t="n">
         <v>31.90999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K80" t="n">
-        <v>2.857142857142793</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L80" t="n">
         <v>31.89999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>8.108108108108112</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L81" t="n">
         <v>31.90999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>8.108108108108112</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L82" t="n">
         <v>31.91999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>11.11111111111116</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L83" t="n">
         <v>31.93999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K84" t="n">
-        <v>13.51351351351359</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L84" t="n">
         <v>31.95999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>11.11111111111116</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L85" t="n">
         <v>31.98999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>29.03225806451615</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L86" t="n">
         <v>32.02</v>
@@ -4665,7 +4687,7 @@
         <v>15.00000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>26.66666666666666</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L87" t="n">
         <v>32.06999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>15.10000000000003</v>
       </c>
       <c r="K88" t="n">
-        <v>48.14814814814806</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
         <v>32.14</v>
@@ -4767,7 +4789,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>49.99999999999994</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
         <v>32.26</v>
@@ -4818,7 +4840,7 @@
         <v>15.20000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>32.34</v>
@@ -4869,7 +4891,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>27.27272727272722</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L91" t="n">
         <v>32.39</v>
@@ -4920,7 +4942,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>27.27272727272722</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L92" t="n">
         <v>32.44</v>
@@ -4971,7 +4993,7 @@
         <v>15.60000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>41.66666666666657</v>
+        <v>77.77777777777743</v>
       </c>
       <c r="L93" t="n">
         <v>32.52</v>
@@ -5022,7 +5044,7 @@
         <v>15.60000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>39.13043478260856</v>
+        <v>77.77777777777743</v>
       </c>
       <c r="L94" t="n">
         <v>32.58999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>47.82608695652171</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L95" t="n">
         <v>32.66999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>57.1428571428571</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L96" t="n">
         <v>32.8</v>
@@ -5175,7 +5197,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>49.99999999999987</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L97" t="n">
         <v>32.88999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>16.70000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>35.48387096774196</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L98" t="n">
         <v>32.92999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>16.70000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>55.5555555555555</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L99" t="n">
         <v>32.95999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>16.90000000000003</v>
       </c>
       <c r="K100" t="n">
-        <v>52.00000000000002</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L100" t="n">
         <v>33.00999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>16.90000000000003</v>
       </c>
       <c r="K101" t="n">
-        <v>47.82608695652171</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L101" t="n">
         <v>33.06999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>17.40000000000003</v>
       </c>
       <c r="K102" t="n">
-        <v>21.42857142857145</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L102" t="n">
         <v>33.07999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>18.00000000000003</v>
       </c>
       <c r="K103" t="n">
-        <v>35.29411764705871</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L103" t="n">
         <v>33.11999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>18.00000000000003</v>
       </c>
       <c r="K104" t="n">
-        <v>33.33333333333319</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L104" t="n">
         <v>33.15999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>18.90000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>4.761904761904665</v>
+        <v>-40.74074074074085</v>
       </c>
       <c r="L105" t="n">
         <v>33.09999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>19.60000000000003</v>
       </c>
       <c r="K106" t="n">
-        <v>18.36734693877549</v>
+        <v>-9.090909090909012</v>
       </c>
       <c r="L106" t="n">
         <v>33.05999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>19.70000000000003</v>
       </c>
       <c r="K107" t="n">
-        <v>10.63829787234042</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>33.02</v>
@@ -5736,7 +5758,7 @@
         <v>20.00000000000003</v>
       </c>
       <c r="K108" t="n">
-        <v>2.040816326530642</v>
+        <v>-9.090909090909012</v>
       </c>
       <c r="L108" t="n">
         <v>32.98999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>20.00000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>-16.12903225806455</v>
       </c>
       <c r="L109" t="n">
         <v>32.95999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>20.20000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>-4.000000000000057</v>
+        <v>-21.21212121212131</v>
       </c>
       <c r="L110" t="n">
         <v>32.88999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>20.20000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>-2.040816326530642</v>
+        <v>-7.142857142857252</v>
       </c>
       <c r="L111" t="n">
         <v>32.81999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>20.80000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>9.090909090909092</v>
+        <v>-7.14285714285698</v>
       </c>
       <c r="L112" t="n">
         <v>32.86</v>
@@ -5991,7 +6013,7 @@
         <v>21.90000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>-14.28571428571425</v>
+        <v>-33.33333333333321</v>
       </c>
       <c r="L113" t="n">
         <v>32.73</v>
@@ -6042,7 +6064,7 @@
         <v>22.40000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>-5.882352941176446</v>
+        <v>2.857142857142892</v>
       </c>
       <c r="L114" t="n">
         <v>32.64999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>22.50000000000004</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.882352941176446</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L115" t="n">
         <v>32.67</v>
@@ -6144,7 +6166,7 @@
         <v>23.00000000000004</v>
       </c>
       <c r="K116" t="n">
-        <v>-20.58823529411761</v>
+        <v>-27.27272727272719</v>
       </c>
       <c r="L116" t="n">
         <v>32.57</v>
@@ -6195,7 +6217,7 @@
         <v>23.00000000000004</v>
       </c>
       <c r="K117" t="n">
-        <v>-19.40298507462682</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>32.48</v>
@@ -6246,7 +6268,7 @@
         <v>23.60000000000004</v>
       </c>
       <c r="K118" t="n">
-        <v>-4.347826086956477</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>32.48</v>
@@ -6348,7 +6370,7 @@
         <v>24.40000000000004</v>
       </c>
       <c r="K120" t="n">
-        <v>-17.33333333333337</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L120" t="n">
         <v>32.34</v>
@@ -6399,7 +6421,7 @@
         <v>25.20000000000005</v>
       </c>
       <c r="K121" t="n">
-        <v>-6.02409638554216</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L121" t="n">
         <v>32.36</v>
@@ -6450,7 +6472,7 @@
         <v>25.50000000000005</v>
       </c>
       <c r="K122" t="n">
-        <v>-3.703703703703749</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L122" t="n">
         <v>32.28999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>25.80000000000005</v>
       </c>
       <c r="K123" t="n">
-        <v>-7.692307692307594</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L123" t="n">
         <v>32.35999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>25.90000000000006</v>
       </c>
       <c r="K124" t="n">
-        <v>-8.860759493670802</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>32.36999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>25.90000000000006</v>
       </c>
       <c r="K125" t="n">
-        <v>2.857142857142886</v>
+        <v>17.24137931034471</v>
       </c>
       <c r="L125" t="n">
         <v>32.36999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K126" t="n">
-        <v>-6.249999999999951</v>
+        <v>19.9999999999999</v>
       </c>
       <c r="L126" t="n">
         <v>32.42999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>26.00000000000006</v>
       </c>
       <c r="K127" t="n">
-        <v>-4.761904761904698</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>32.48999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>26.10000000000006</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.639344262295097</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L128" t="n">
         <v>32.47999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>26.10000000000006</v>
       </c>
       <c r="K129" t="n">
-        <v>-1.639344262295097</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L129" t="n">
         <v>32.55</v>
@@ -6858,7 +6880,7 @@
         <v>26.70000000000006</v>
       </c>
       <c r="K130" t="n">
-        <v>-7.692307692307658</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L130" t="n">
         <v>32.56</v>
@@ -6909,7 +6931,7 @@
         <v>27.20000000000006</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L131" t="n">
         <v>32.54</v>
@@ -6960,7 +6982,7 @@
         <v>27.70000000000006</v>
       </c>
       <c r="K132" t="n">
-        <v>-15.9420289855072</v>
+        <v>-36.84210526315793</v>
       </c>
       <c r="L132" t="n">
         <v>32.5</v>
@@ -7011,7 +7033,7 @@
         <v>28.00000000000006</v>
       </c>
       <c r="K133" t="n">
-        <v>4.918032786885181</v>
+        <v>-14.28571428571448</v>
       </c>
       <c r="L133" t="n">
         <v>32.46</v>
@@ -7062,7 +7084,7 @@
         <v>28.10000000000006</v>
       </c>
       <c r="K134" t="n">
-        <v>-1.754385964912298</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L134" t="n">
         <v>32.44</v>
@@ -7113,7 +7135,7 @@
         <v>28.40000000000006</v>
       </c>
       <c r="K135" t="n">
-        <v>-8.474576271186413</v>
+        <v>-25.00000000000007</v>
       </c>
       <c r="L135" t="n">
         <v>32.39</v>
@@ -7164,7 +7186,7 @@
         <v>28.90000000000006</v>
       </c>
       <c r="K136" t="n">
-        <v>-8.474576271186413</v>
+        <v>-37.93103448275869</v>
       </c>
       <c r="L136" t="n">
         <v>32.28</v>
@@ -7215,7 +7237,7 @@
         <v>29.00000000000005</v>
       </c>
       <c r="K137" t="n">
-        <v>-6.666666666666682</v>
+        <v>-31.03448275862082</v>
       </c>
       <c r="L137" t="n">
         <v>32.18</v>
@@ -7266,7 +7288,7 @@
         <v>29.30000000000005</v>
       </c>
       <c r="K138" t="n">
-        <v>-12.28070175438598</v>
+        <v>-18.75000000000007</v>
       </c>
       <c r="L138" t="n">
         <v>32.12</v>
@@ -7317,7 +7339,7 @@
         <v>29.50000000000006</v>
       </c>
       <c r="K139" t="n">
-        <v>5.882352941176537</v>
+        <v>7.142857142857252</v>
       </c>
       <c r="L139" t="n">
         <v>32.08</v>
@@ -7368,7 +7390,7 @@
         <v>29.90000000000006</v>
       </c>
       <c r="K140" t="n">
-        <v>-1.818181818181774</v>
+        <v>-25.92592592592591</v>
       </c>
       <c r="L140" t="n">
         <v>32.06</v>
@@ -7419,7 +7441,7 @@
         <v>30.20000000000006</v>
       </c>
       <c r="K141" t="n">
-        <v>-11.99999999999999</v>
+        <v>4.000000000000057</v>
       </c>
       <c r="L141" t="n">
         <v>32.02</v>
@@ -7470,7 +7492,7 @@
         <v>30.30000000000006</v>
       </c>
       <c r="K142" t="n">
-        <v>-4.166666666666567</v>
+        <v>-4.347826086956267</v>
       </c>
       <c r="L142" t="n">
         <v>32.04</v>
@@ -7521,7 +7543,7 @@
         <v>30.30000000000006</v>
       </c>
       <c r="K143" t="n">
-        <v>-11.11111111111109</v>
+        <v>-9.090909090908886</v>
       </c>
       <c r="L143" t="n">
         <v>32.02999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>30.60000000000006</v>
       </c>
       <c r="K144" t="n">
-        <v>-2.127659574468114</v>
+        <v>18.18181818181809</v>
       </c>
       <c r="L144" t="n">
         <v>32.04</v>
@@ -7623,7 +7645,7 @@
         <v>30.80000000000006</v>
       </c>
       <c r="K145" t="n">
-        <v>2.040816326530639</v>
+        <v>57.89473684210517</v>
       </c>
       <c r="L145" t="n">
         <v>32.09999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>31.30000000000006</v>
       </c>
       <c r="K146" t="n">
-        <v>-9.433962264150935</v>
+        <v>21.73913043478269</v>
       </c>
       <c r="L146" t="n">
         <v>32.15999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>31.80000000000006</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>28.00000000000004</v>
       </c>
       <c r="L147" t="n">
         <v>32.25999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>32.10000000000007</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.333333333333377</v>
+        <v>7.692307692307502</v>
       </c>
       <c r="L148" t="n">
         <v>32.29999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>32.40000000000007</v>
       </c>
       <c r="K149" t="n">
-        <v>1.587301587301607</v>
+        <v>35.99999999999993</v>
       </c>
       <c r="L149" t="n">
         <v>32.34999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>32.40000000000007</v>
       </c>
       <c r="K150" t="n">
-        <v>12.28070175438599</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L150" t="n">
         <v>32.43999999999998</v>
@@ -7929,7 +7951,7 @@
         <v>32.50000000000006</v>
       </c>
       <c r="K151" t="n">
-        <v>5.660377358490508</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L151" t="n">
         <v>32.50999999999998</v>
@@ -7980,7 +8002,7 @@
         <v>32.50000000000006</v>
       </c>
       <c r="K152" t="n">
-        <v>16.66666666666659</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L152" t="n">
         <v>32.56999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>32.90000000000007</v>
       </c>
       <c r="K153" t="n">
-        <v>18.36734693877558</v>
+        <v>30.43478260869563</v>
       </c>
       <c r="L153" t="n">
         <v>32.66999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>32.90000000000007</v>
       </c>
       <c r="K154" t="n">
-        <v>16.66666666666671</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L154" t="n">
         <v>32.73999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>32.90000000000007</v>
       </c>
       <c r="K155" t="n">
-        <v>24.4444444444444</v>
+        <v>62.49999999999967</v>
       </c>
       <c r="L155" t="n">
         <v>32.78999999999998</v>
@@ -8184,7 +8206,7 @@
         <v>32.90000000000007</v>
       </c>
       <c r="K156" t="n">
-        <v>39.99999999999989</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L156" t="n">
         <v>32.88999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>33.00000000000007</v>
       </c>
       <c r="K157" t="n">
-        <v>34.9999999999999</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L157" t="n">
         <v>32.92999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>33.50000000000007</v>
       </c>
       <c r="K158" t="n">
-        <v>14.28571428571426</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L158" t="n">
         <v>32.95</v>
@@ -8337,7 +8359,7 @@
         <v>33.90000000000007</v>
       </c>
       <c r="K159" t="n">
-        <v>18.18181818181807</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L159" t="n">
         <v>32.98</v>
@@ -8388,7 +8410,7 @@
         <v>34.40000000000007</v>
       </c>
       <c r="K160" t="n">
-        <v>15.5555555555555</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L160" t="n">
         <v>32.95999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>34.90000000000007</v>
       </c>
       <c r="K161" t="n">
-        <v>19.1489361702127</v>
+        <v>8.333333333333432</v>
       </c>
       <c r="L161" t="n">
         <v>32.98</v>
@@ -8490,7 +8512,7 @@
         <v>35.00000000000007</v>
       </c>
       <c r="K162" t="n">
-        <v>19.1489361702127</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L162" t="n">
         <v>33.01</v>
@@ -8541,7 +8563,7 @@
         <v>35.10000000000007</v>
       </c>
       <c r="K163" t="n">
-        <v>20.83333333333329</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>33.01</v>
@@ -8592,7 +8614,7 @@
         <v>35.50000000000008</v>
       </c>
       <c r="K164" t="n">
-        <v>6.122448979591754</v>
+        <v>-15.38461538461555</v>
       </c>
       <c r="L164" t="n">
         <v>32.97</v>
@@ -8643,7 +8665,7 @@
         <v>35.50000000000008</v>
       </c>
       <c r="K165" t="n">
-        <v>2.127659574467956</v>
+        <v>-15.38461538461555</v>
       </c>
       <c r="L165" t="n">
         <v>32.93</v>
@@ -8694,7 +8716,7 @@
         <v>35.90000000000008</v>
       </c>
       <c r="K166" t="n">
-        <v>21.7391304347825</v>
+        <v>3.448275862068999</v>
       </c>
       <c r="L166" t="n">
         <v>32.93</v>
@@ -8745,7 +8767,7 @@
         <v>36.10000000000008</v>
       </c>
       <c r="K167" t="n">
-        <v>16.27906976744169</v>
+        <v>30.76923076923056</v>
       </c>
       <c r="L167" t="n">
         <v>32.95999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>36.10000000000008</v>
       </c>
       <c r="K168" t="n">
-        <v>24.99999999999991</v>
+        <v>18.18181818181803</v>
       </c>
       <c r="L168" t="n">
         <v>33.03999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>36.10000000000008</v>
       </c>
       <c r="K169" t="n">
-        <v>18.91891891891875</v>
+        <v>52.94117647058785</v>
       </c>
       <c r="L169" t="n">
         <v>33.07999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>36.30000000000008</v>
       </c>
       <c r="K170" t="n">
-        <v>23.07692307692296</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L170" t="n">
         <v>33.18999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>36.60000000000008</v>
       </c>
       <c r="K171" t="n">
-        <v>26.82926829268286</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L171" t="n">
         <v>33.27999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>36.80000000000008</v>
       </c>
       <c r="K172" t="n">
-        <v>20.93023255813961</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L172" t="n">
         <v>33.33999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>36.90000000000008</v>
       </c>
       <c r="K173" t="n">
-        <v>9.999999999999947</v>
+        <v>57.14285714285751</v>
       </c>
       <c r="L173" t="n">
         <v>33.37999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>37.20000000000008</v>
       </c>
       <c r="K174" t="n">
-        <v>2.325581395348699</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L174" t="n">
         <v>33.42999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>37.90000000000008</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.00000000000001</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L175" t="n">
         <v>33.40999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>38.30000000000008</v>
       </c>
       <c r="K176" t="n">
-        <v>-3.703703703703753</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L176" t="n">
         <v>33.38999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>38.30000000000008</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.886792452830214</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L177" t="n">
         <v>33.34999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>38.90000000000008</v>
       </c>
       <c r="K178" t="n">
-        <v>18.5185185185185</v>
+        <v>7.142857142857252</v>
       </c>
       <c r="L178" t="n">
         <v>33.37</v>
@@ -9357,7 +9379,7 @@
         <v>39.20000000000008</v>
       </c>
       <c r="K179" t="n">
-        <v>5.6603773584905</v>
+        <v>-10.34482758620705</v>
       </c>
       <c r="L179" t="n">
         <v>33.36</v>
@@ -9408,7 +9430,7 @@
         <v>39.20000000000008</v>
       </c>
       <c r="K180" t="n">
-        <v>16.66666666666657</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L180" t="n">
         <v>33.33</v>
@@ -9459,7 +9481,7 @@
         <v>39.40000000000008</v>
       </c>
       <c r="K181" t="n">
-        <v>11.11111111111108</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L181" t="n">
         <v>33.29000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>39.40000000000008</v>
       </c>
       <c r="K182" t="n">
-        <v>9.090909090909033</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L182" t="n">
         <v>33.27</v>
@@ -9561,7 +9583,7 @@
         <v>39.80000000000008</v>
       </c>
       <c r="K183" t="n">
-        <v>-2.127659574468111</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L183" t="n">
         <v>33.22000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>39.90000000000008</v>
       </c>
       <c r="K184" t="n">
-        <v>4.545454545454604</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L184" t="n">
         <v>33.19</v>
@@ -9663,7 +9685,7 @@
         <v>40.20000000000008</v>
       </c>
       <c r="K185" t="n">
-        <v>-2.127659574467963</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L185" t="n">
         <v>33.2</v>
@@ -9714,7 +9736,7 @@
         <v>40.20000000000008</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.62790697674419</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L186" t="n">
         <v>33.17</v>
@@ -9765,7 +9787,7 @@
         <v>40.50000000000008</v>
       </c>
       <c r="K187" t="n">
-        <v>-9.090909090909062</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L187" t="n">
         <v>33.17</v>
@@ -9816,7 +9838,7 @@
         <v>40.50000000000008</v>
       </c>
       <c r="K188" t="n">
-        <v>-9.090909090909062</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L188" t="n">
         <v>33.11</v>
@@ -9867,7 +9889,7 @@
         <v>40.90000000000008</v>
       </c>
       <c r="K189" t="n">
-        <v>-16.66666666666662</v>
+        <v>-41.17647058823515</v>
       </c>
       <c r="L189" t="n">
         <v>33.04</v>
@@ -9918,7 +9940,7 @@
         <v>40.90000000000008</v>
       </c>
       <c r="K190" t="n">
-        <v>-21.73913043478263</v>
+        <v>-60.00000000000018</v>
       </c>
       <c r="L190" t="n">
         <v>32.97</v>
@@ -9969,7 +9991,7 @@
         <v>41.00000000000008</v>
       </c>
       <c r="K191" t="n">
-        <v>-27.27272727272718</v>
+        <v>-50</v>
       </c>
       <c r="L191" t="n">
         <v>32.89</v>
@@ -10020,7 +10042,7 @@
         <v>41.00000000000008</v>
       </c>
       <c r="K192" t="n">
-        <v>-23.8095238095238</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>32.81</v>
@@ -10071,7 +10093,7 @@
         <v>41.00000000000008</v>
       </c>
       <c r="K193" t="n">
-        <v>-21.95121951219508</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L193" t="n">
         <v>32.77</v>
@@ -10122,7 +10144,7 @@
         <v>41.00000000000008</v>
       </c>
       <c r="K194" t="n">
-        <v>-15.78947368421039</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>32.73999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>41.00000000000008</v>
       </c>
       <c r="K195" t="n">
-        <v>3.225806451612947</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>32.73999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>41.20000000000007</v>
       </c>
       <c r="K196" t="n">
-        <v>-3.448275862069016</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L196" t="n">
         <v>32.75999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>41.40000000000007</v>
       </c>
       <c r="K197" t="n">
-        <v>-9.677419354838635</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>32.72999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>41.60000000000007</v>
       </c>
       <c r="K198" t="n">
-        <v>-25.92592592592614</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L198" t="n">
         <v>32.71999999999998</v>
@@ -10377,7 +10399,7 @@
         <v>41.60000000000007</v>
       </c>
       <c r="K199" t="n">
-        <v>-16.66666666666671</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L199" t="n">
         <v>32.74999999999999</v>
@@ -10428,7 +10450,7 @@
         <v>41.70000000000007</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.99999999999996</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L200" t="n">
         <v>32.78999999999998</v>
@@ -10479,7 +10501,7 @@
         <v>41.70000000000007</v>
       </c>
       <c r="K201" t="n">
-        <v>-21.73913043478277</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L201" t="n">
         <v>32.81999999999998</v>
@@ -10530,7 +10552,7 @@
         <v>41.80000000000007</v>
       </c>
       <c r="K202" t="n">
-        <v>-16.66666666666671</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L202" t="n">
         <v>32.85999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>41.80000000000007</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L203" t="n">
         <v>32.89999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>41.80000000000007</v>
       </c>
       <c r="K204" t="n">
-        <v>5.263157894736961</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L204" t="n">
         <v>32.93999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>41.90000000000007</v>
       </c>
       <c r="K205" t="n">
-        <v>17.64705882352936</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L205" t="n">
         <v>32.96999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>42.10000000000007</v>
       </c>
       <c r="K206" t="n">
-        <v>26.31578947368433</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L206" t="n">
         <v>32.99999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>42.30000000000008</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L207" t="n">
         <v>33.02999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>42.30000000000008</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L208" t="n">
         <v>33.04</v>
@@ -10887,7 +10909,7 @@
         <v>42.80000000000008</v>
       </c>
       <c r="K209" t="n">
-        <v>-5.263157894736921</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L209" t="n">
         <v>33</v>
@@ -10938,7 +10960,7 @@
         <v>42.90000000000008</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L210" t="n">
         <v>32.96</v>
@@ -10989,7 +11011,7 @@
         <v>42.90000000000008</v>
       </c>
       <c r="K211" t="n">
-        <v>-5.263157894736921</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L211" t="n">
         <v>32.92</v>
@@ -11040,7 +11062,7 @@
         <v>43.10000000000007</v>
       </c>
       <c r="K212" t="n">
-        <v>4.761904761904504</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L212" t="n">
         <v>32.89</v>
@@ -11091,7 +11113,7 @@
         <v>43.10000000000007</v>
       </c>
       <c r="K213" t="n">
-        <v>4.761904761904504</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L213" t="n">
         <v>32.86</v>
@@ -11142,7 +11164,7 @@
         <v>43.30000000000007</v>
       </c>
       <c r="K214" t="n">
-        <v>-4.347826086956602</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L214" t="n">
         <v>32.81</v>
@@ -11193,7 +11215,7 @@
         <v>43.40000000000007</v>
       </c>
       <c r="K215" t="n">
-        <v>-8.333333333333481</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L215" t="n">
         <v>32.76000000000001</v>
@@ -11244,7 +11266,7 @@
         <v>43.80000000000007</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L216" t="n">
         <v>32.73</v>
@@ -11295,7 +11317,7 @@
         <v>43.80000000000007</v>
       </c>
       <c r="K217" t="n">
-        <v>8.333333333333162</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L217" t="n">
         <v>32.72</v>
@@ -11346,7 +11368,7 @@
         <v>43.80000000000007</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L218" t="n">
         <v>32.70999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>44.10000000000007</v>
       </c>
       <c r="K219" t="n">
-        <v>-11.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>32.72</v>
@@ -11448,7 +11470,7 @@
         <v>44.10000000000007</v>
       </c>
       <c r="K220" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>32.72</v>
@@ -11499,7 +11521,7 @@
         <v>44.10000000000007</v>
       </c>
       <c r="K221" t="n">
-        <v>-16.66666666666662</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L221" t="n">
         <v>32.72</v>
@@ -11550,7 +11572,7 @@
         <v>44.10000000000007</v>
       </c>
       <c r="K222" t="n">
-        <v>-21.73913043478263</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L222" t="n">
         <v>32.7</v>
@@ -11601,7 +11623,7 @@
         <v>44.10000000000007</v>
       </c>
       <c r="K223" t="n">
-        <v>-21.73913043478263</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>32.68</v>
@@ -11652,7 +11674,7 @@
         <v>44.40000000000006</v>
       </c>
       <c r="K224" t="n">
-        <v>-7.692307692307819</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L224" t="n">
         <v>32.70999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>44.50000000000006</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L225" t="n">
         <v>32.76</v>
@@ -11754,7 +11776,7 @@
         <v>44.70000000000007</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L226" t="n">
         <v>32.79</v>
@@ -11805,7 +11827,7 @@
         <v>45.20000000000007</v>
       </c>
       <c r="K227" t="n">
-        <v>-10.34482758620683</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L227" t="n">
         <v>32.77</v>
@@ -11856,7 +11878,7 @@
         <v>45.30000000000007</v>
       </c>
       <c r="K228" t="n">
-        <v>-13.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>32.74</v>
@@ -11907,7 +11929,7 @@
         <v>45.30000000000007</v>
       </c>
       <c r="K229" t="n">
-        <v>4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>32.74</v>
@@ -11958,7 +11980,7 @@
         <v>45.80000000000007</v>
       </c>
       <c r="K230" t="n">
-        <v>-17.24137931034488</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L230" t="n">
         <v>32.69</v>
@@ -12009,7 +12031,7 @@
         <v>46.40000000000007</v>
       </c>
       <c r="K231" t="n">
-        <v>-31.42857142857153</v>
+        <v>-47.82608695652171</v>
       </c>
       <c r="L231" t="n">
         <v>32.58</v>
@@ -12060,7 +12082,7 @@
         <v>46.40000000000007</v>
       </c>
       <c r="K232" t="n">
-        <v>-39.39393939393934</v>
+        <v>-47.82608695652171</v>
       </c>
       <c r="L232" t="n">
         <v>32.47</v>
@@ -12111,7 +12133,7 @@
         <v>47.70000000000007</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>-3.03030303030307</v>
       </c>
       <c r="L233" t="n">
         <v>32.48999999999999</v>
@@ -12162,7 +12184,7 @@
         <v>48.90000000000006</v>
       </c>
       <c r="K234" t="n">
-        <v>-17.85714285714288</v>
+        <v>-31.8181818181818</v>
       </c>
       <c r="L234" t="n">
         <v>32.36</v>
@@ -12213,7 +12235,7 @@
         <v>50.00000000000006</v>
       </c>
       <c r="K235" t="n">
-        <v>3.030303030303076</v>
+        <v>-9.433962264150948</v>
       </c>
       <c r="L235" t="n">
         <v>32.33</v>
@@ -12264,7 +12286,7 @@
         <v>51.00000000000007</v>
       </c>
       <c r="K236" t="n">
-        <v>-16.66666666666665</v>
+        <v>-17.24137931034488</v>
       </c>
       <c r="L236" t="n">
         <v>32.18</v>
@@ -12315,7 +12337,7 @@
         <v>51.80000000000007</v>
       </c>
       <c r="K237" t="n">
-        <v>-4.999999999999982</v>
+        <v>-1.53846153846156</v>
       </c>
       <c r="L237" t="n">
         <v>32.16</v>
@@ -12366,7 +12388,7 @@
         <v>52.20000000000007</v>
       </c>
       <c r="K238" t="n">
-        <v>-9.523809523809492</v>
+        <v>-7.246376811594205</v>
       </c>
       <c r="L238" t="n">
         <v>32.11</v>
@@ -12417,7 +12439,7 @@
         <v>52.40000000000007</v>
       </c>
       <c r="K239" t="n">
-        <v>-8.433734939759066</v>
+        <v>-3.030303030303073</v>
       </c>
       <c r="L239" t="n">
         <v>32.04</v>
@@ -12468,7 +12490,7 @@
         <v>52.50000000000007</v>
       </c>
       <c r="K240" t="n">
-        <v>-9.523809523809526</v>
+        <v>4.918032786885256</v>
       </c>
       <c r="L240" t="n">
         <v>32.01</v>
@@ -12519,7 +12541,7 @@
         <v>52.80000000000007</v>
       </c>
       <c r="K241" t="n">
-        <v>-12.64367816091955</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>32.01</v>
@@ -12570,7 +12592,7 @@
         <v>52.90000000000007</v>
       </c>
       <c r="K242" t="n">
-        <v>-11.36363636363636</v>
+        <v>-23.07692307692298</v>
       </c>
       <c r="L242" t="n">
         <v>32.02</v>
@@ -12621,7 +12643,7 @@
         <v>53.80000000000007</v>
       </c>
       <c r="K243" t="n">
-        <v>-1.030927835051561</v>
+        <v>18.36734693877546</v>
       </c>
       <c r="L243" t="n">
         <v>31.99</v>
@@ -12672,7 +12694,7 @@
         <v>54.00000000000007</v>
       </c>
       <c r="K244" t="n">
-        <v>-6.25000000000001</v>
+        <v>-10.00000000000012</v>
       </c>
       <c r="L244" t="n">
         <v>32.06</v>
@@ -12723,7 +12745,7 @@
         <v>54.60000000000007</v>
       </c>
       <c r="K245" t="n">
-        <v>-0.9900990099010033</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>32.08</v>
@@ -12774,7 +12796,7 @@
         <v>54.60000000000007</v>
       </c>
       <c r="K246" t="n">
-        <v>-3.030303030303072</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L246" t="n">
         <v>32.2</v>
@@ -12825,7 +12847,7 @@
         <v>54.60000000000007</v>
       </c>
       <c r="K247" t="n">
-        <v>2.127659574468038</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L247" t="n">
         <v>32.23999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K248" t="n">
-        <v>-3.030303030303072</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L248" t="n">
         <v>32.25999999999999</v>
@@ -12927,7 +12949,7 @@
         <v>55.80000000000008</v>
       </c>
       <c r="K249" t="n">
-        <v>2.857142857142828</v>
+        <v>33.33333333333323</v>
       </c>
       <c r="L249" t="n">
         <v>32.35999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>56.30000000000008</v>
       </c>
       <c r="K250" t="n">
-        <v>2.857142857142828</v>
+        <v>25.71428571428562</v>
       </c>
       <c r="L250" t="n">
         <v>32.41999999999999</v>
@@ -13029,7 +13051,7 @@
         <v>56.80000000000008</v>
       </c>
       <c r="K251" t="n">
-        <v>13.46153846153844</v>
+        <v>33.33333333333321</v>
       </c>
       <c r="L251" t="n">
         <v>32.55999999999999</v>
@@ -13080,7 +13102,7 @@
         <v>57.10000000000007</v>
       </c>
       <c r="K252" t="n">
-        <v>10.28037383177571</v>
+        <v>3.03030303030307</v>
       </c>
       <c r="L252" t="n">
         <v>32.65999999999998</v>
@@ -13131,7 +13153,7 @@
         <v>57.40000000000007</v>
       </c>
       <c r="K253" t="n">
-        <v>1.030927835051561</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L253" t="n">
         <v>32.69999999999998</v>
@@ -13182,7 +13204,7 @@
         <v>57.70000000000007</v>
       </c>
       <c r="K254" t="n">
-        <v>11.36363636363636</v>
+        <v>-9.677419354838635</v>
       </c>
       <c r="L254" t="n">
         <v>32.72999999999998</v>
@@ -13233,7 +13255,7 @@
         <v>58.00000000000006</v>
       </c>
       <c r="K255" t="n">
-        <v>2.499999999999947</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>32.72999999999998</v>
@@ -13284,7 +13306,7 @@
         <v>58.10000000000007</v>
       </c>
       <c r="K256" t="n">
-        <v>15.49295774647886</v>
+        <v>-2.857142857142903</v>
       </c>
       <c r="L256" t="n">
         <v>32.71999999999998</v>
@@ -13335,7 +13357,7 @@
         <v>58.40000000000007</v>
       </c>
       <c r="K257" t="n">
-        <v>9.090909090909111</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L257" t="n">
         <v>32.73999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>58.50000000000007</v>
       </c>
       <c r="K258" t="n">
-        <v>14.28571428571425</v>
+        <v>3.703703703703762</v>
       </c>
       <c r="L258" t="n">
         <v>32.80999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>58.70000000000007</v>
       </c>
       <c r="K259" t="n">
-        <v>20.63492063492069</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L259" t="n">
         <v>32.83999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>58.70000000000007</v>
       </c>
       <c r="K260" t="n">
-        <v>22.58064516129035</v>
+        <v>15.78947368421076</v>
       </c>
       <c r="L260" t="n">
         <v>32.91999999999999</v>
@@ -13539,7 +13561,7 @@
         <v>58.90000000000007</v>
       </c>
       <c r="K261" t="n">
-        <v>31.14754098360653</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L261" t="n">
         <v>32.96999999999999</v>
@@ -13590,7 +13612,7 @@
         <v>59.00000000000007</v>
       </c>
       <c r="K262" t="n">
-        <v>31.14754098360653</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L262" t="n">
         <v>33.05999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>59.10000000000007</v>
       </c>
       <c r="K263" t="n">
-        <v>20.75471698113208</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L263" t="n">
         <v>33.13</v>
@@ -13692,7 +13714,7 @@
         <v>59.50000000000007</v>
       </c>
       <c r="K264" t="n">
-        <v>16.36363636363647</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L264" t="n">
         <v>33.18999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>59.90000000000008</v>
       </c>
       <c r="K265" t="n">
-        <v>-1.886792452830214</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>33.17999999999999</v>
@@ -13794,7 +13816,7 @@
         <v>60.30000000000008</v>
       </c>
       <c r="K266" t="n">
-        <v>5.263157894736907</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L266" t="n">
         <v>33.21999999999999</v>
@@ -13845,7 +13867,7 @@
         <v>60.30000000000008</v>
       </c>
       <c r="K267" t="n">
-        <v>5.263157894736907</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L267" t="n">
         <v>33.22999999999999</v>
@@ -13896,7 +13918,7 @@
         <v>60.90000000000008</v>
       </c>
       <c r="K268" t="n">
-        <v>5.263157894736907</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L268" t="n">
         <v>33.18999999999999</v>
@@ -13947,7 +13969,7 @@
         <v>61.40000000000008</v>
       </c>
       <c r="K269" t="n">
-        <v>3.571428571428617</v>
+        <v>-3.703703703703742</v>
       </c>
       <c r="L269" t="n">
         <v>33.17999999999999</v>
@@ -13998,7 +14020,7 @@
         <v>61.60000000000009</v>
       </c>
       <c r="K270" t="n">
-        <v>9.433962264150923</v>
+        <v>-18.5185185185184</v>
       </c>
       <c r="L270" t="n">
         <v>33.14999999999999</v>
@@ -14049,7 +14071,7 @@
         <v>61.90000000000008</v>
       </c>
       <c r="K271" t="n">
-        <v>-5.882352941176405</v>
+        <v>-31.0344827586205</v>
       </c>
       <c r="L271" t="n">
         <v>33.07</v>
@@ -14100,7 +14122,7 @@
         <v>62.20000000000008</v>
       </c>
       <c r="K272" t="n">
-        <v>5.882352941176405</v>
+        <v>-22.58064516129035</v>
       </c>
       <c r="L272" t="n">
         <v>33.01</v>
@@ -14151,7 +14173,7 @@
         <v>62.40000000000008</v>
       </c>
       <c r="K273" t="n">
-        <v>4.000000000000045</v>
+        <v>-3.448275862068999</v>
       </c>
       <c r="L273" t="n">
         <v>32.95999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>62.40000000000008</v>
       </c>
       <c r="K274" t="n">
-        <v>10.63829787234039</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="L274" t="n">
         <v>32.95</v>
@@ -14253,7 +14275,7 @@
         <v>62.70000000000008</v>
       </c>
       <c r="K275" t="n">
-        <v>10.63829787234039</v>
+        <v>8.333333333333162</v>
       </c>
       <c r="L275" t="n">
         <v>33.01</v>
@@ -14304,7 +14326,7 @@
         <v>62.70000000000008</v>
       </c>
       <c r="K276" t="n">
-        <v>13.04347826086955</v>
+        <v>8.333333333333162</v>
       </c>
       <c r="L276" t="n">
         <v>33.02999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>63.50000000000008</v>
       </c>
       <c r="K277" t="n">
-        <v>-9.803921568627434</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>32.97</v>
@@ -14406,7 +14428,7 @@
         <v>63.50000000000008</v>
       </c>
       <c r="K278" t="n">
-        <v>-7.99999999999996</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L278" t="n">
         <v>32.97</v>
@@ -14457,7 +14479,7 @@
         <v>64.60000000000008</v>
       </c>
       <c r="K279" t="n">
-        <v>-28.81355932203392</v>
+        <v>-46.66666666666673</v>
       </c>
       <c r="L279" t="n">
         <v>32.81</v>
@@ -14508,7 +14530,7 @@
         <v>65.70000000000007</v>
       </c>
       <c r="K280" t="n">
-        <v>-8.571428571428592</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>32.78</v>
@@ -14559,7 +14581,7 @@
         <v>65.90000000000006</v>
       </c>
       <c r="K281" t="n">
-        <v>-8.571428571428601</v>
+        <v>-2.702702702702755</v>
       </c>
       <c r="L281" t="n">
         <v>32.8</v>
@@ -14610,7 +14632,7 @@
         <v>65.90000000000006</v>
       </c>
       <c r="K282" t="n">
-        <v>-10.14492753623194</v>
+        <v>-8.571428571428745</v>
       </c>
       <c r="L282" t="n">
         <v>32.79000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>65.90000000000006</v>
       </c>
       <c r="K283" t="n">
-        <v>-11.76470588235302</v>
+        <v>-8.571428571428745</v>
       </c>
       <c r="L283" t="n">
         <v>32.76000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>65.90000000000006</v>
       </c>
       <c r="K284" t="n">
-        <v>-6.250000000000097</v>
+        <v>-18.75000000000015</v>
       </c>
       <c r="L284" t="n">
         <v>32.73</v>
@@ -14763,7 +14785,7 @@
         <v>66.90000000000006</v>
       </c>
       <c r="K285" t="n">
-        <v>-14.28571428571426</v>
+        <v>-38.09523809523821</v>
       </c>
       <c r="L285" t="n">
         <v>32.57000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>66.90000000000006</v>
       </c>
       <c r="K286" t="n">
-        <v>-21.21212121212131</v>
+        <v>-23.52941176470601</v>
       </c>
       <c r="L286" t="n">
         <v>32.41000000000001</v>
@@ -14865,7 +14887,7 @@
         <v>67.90000000000006</v>
       </c>
       <c r="K287" t="n">
-        <v>-5.26315789473693</v>
+        <v>4.545454545454464</v>
       </c>
       <c r="L287" t="n">
         <v>32.43000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>68.00000000000006</v>
       </c>
       <c r="K288" t="n">
-        <v>1.408450704225378</v>
+        <v>35.29411764705914</v>
       </c>
       <c r="L288" t="n">
         <v>32.44</v>
@@ -14967,7 +14989,7 @@
         <v>68.90000000000006</v>
       </c>
       <c r="K289" t="n">
-        <v>-17.33333333333339</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L289" t="n">
         <v>32.47000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>69.20000000000006</v>
       </c>
       <c r="K290" t="n">
-        <v>-10.52631578947368</v>
+        <v>-21.2121212121211</v>
       </c>
       <c r="L290" t="n">
         <v>32.42</v>
@@ -15069,7 +15091,7 @@
         <v>69.40000000000006</v>
       </c>
       <c r="K291" t="n">
-        <v>-4.000000000000068</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>32.37</v>
@@ -15120,7 +15142,7 @@
         <v>69.40000000000006</v>
       </c>
       <c r="K292" t="n">
-        <v>-8.333333333333375</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>32.32000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>69.50000000000006</v>
       </c>
       <c r="K293" t="n">
-        <v>-9.859154929577542</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L293" t="n">
         <v>32.28</v>
@@ -15222,7 +15244,7 @@
         <v>69.80000000000007</v>
       </c>
       <c r="K294" t="n">
-        <v>-5.405405405405397</v>
+        <v>31.0344827586207</v>
       </c>
       <c r="L294" t="n">
         <v>32.27</v>
@@ -15273,7 +15295,7 @@
         <v>70.10000000000008</v>
       </c>
       <c r="K295" t="n">
-        <v>-13.51351351351352</v>
+        <v>18.74999999999983</v>
       </c>
       <c r="L295" t="n">
         <v>32.33</v>
@@ -15324,7 +15346,7 @@
         <v>70.10000000000008</v>
       </c>
       <c r="K296" t="n">
-        <v>-13.51351351351352</v>
+        <v>-18.18181818181798</v>
       </c>
       <c r="L296" t="n">
         <v>32.38999999999999</v>
@@ -15375,7 +15397,7 @@
         <v>70.10000000000008</v>
       </c>
       <c r="K297" t="n">
-        <v>-3.030303030303073</v>
+        <v>-14.28571428571433</v>
       </c>
       <c r="L297" t="n">
         <v>32.34999999999999</v>
@@ -15426,7 +15448,7 @@
         <v>70.10000000000008</v>
       </c>
       <c r="K298" t="n">
-        <v>-3.030303030303073</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L298" t="n">
         <v>32.31999999999999</v>
@@ -15477,7 +15499,7 @@
         <v>70.10000000000008</v>
       </c>
       <c r="K299" t="n">
-        <v>16.36363636363634</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="L299" t="n">
         <v>32.37999999999998</v>
@@ -15528,7 +15550,7 @@
         <v>70.10000000000008</v>
       </c>
       <c r="K300" t="n">
-        <v>-4.545454545454604</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L300" t="n">
         <v>32.40999999999998</v>
@@ -15579,7 +15601,7 @@
         <v>70.10000000000008</v>
       </c>
       <c r="K301" t="n">
-        <v>-9.523809523809451</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L301" t="n">
         <v>32.41999999999997</v>
@@ -15630,7 +15652,7 @@
         <v>70.30000000000007</v>
       </c>
       <c r="K302" t="n">
-        <v>-13.63636363636349</v>
+        <v>-24.99999999999911</v>
       </c>
       <c r="L302" t="n">
         <v>32.40999999999998</v>
@@ -15681,7 +15703,7 @@
         <v>70.30000000000007</v>
       </c>
       <c r="K303" t="n">
-        <v>-13.63636363636349</v>
+        <v>-100</v>
       </c>
       <c r="L303" t="n">
         <v>32.38999999999997</v>
@@ -15732,7 +15754,7 @@
         <v>70.40000000000006</v>
       </c>
       <c r="K304" t="n">
-        <v>-15.55555555555546</v>
+        <v>-100.0000000000047</v>
       </c>
       <c r="L304" t="n">
         <v>32.32999999999998</v>
@@ -15783,7 +15805,7 @@
         <v>70.90000000000006</v>
       </c>
       <c r="K305" t="n">
-        <v>20.00000000000002</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L305" t="n">
         <v>32.34999999999998</v>
@@ -15834,7 +15856,7 @@
         <v>71.50000000000006</v>
       </c>
       <c r="K306" t="n">
-        <v>4.347826086956512</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L306" t="n">
         <v>32.30999999999999</v>
@@ -15885,7 +15907,7 @@
         <v>71.60000000000005</v>
       </c>
       <c r="K307" t="n">
-        <v>-18.91891891891886</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L307" t="n">
         <v>32.27999999999999</v>
@@ -15936,7 +15958,7 @@
         <v>71.90000000000005</v>
       </c>
       <c r="K308" t="n">
-        <v>-23.07692307692318</v>
+        <v>-33.33333333333379</v>
       </c>
       <c r="L308" t="n">
         <v>32.21999999999999</v>
@@ -15987,7 +16009,7 @@
         <v>71.90000000000005</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>-33.33333333333379</v>
       </c>
       <c r="L309" t="n">
         <v>32.16</v>
@@ -16038,7 +16060,7 @@
         <v>72.30000000000005</v>
       </c>
       <c r="K310" t="n">
-        <v>-22.58064516129046</v>
+        <v>-45.45454545454598</v>
       </c>
       <c r="L310" t="n">
         <v>32.06</v>
@@ -16089,7 +16111,7 @@
         <v>72.80000000000005</v>
       </c>
       <c r="K311" t="n">
-        <v>-11.76470588235293</v>
+        <v>-12.00000000000024</v>
       </c>
       <c r="L311" t="n">
         <v>32.01</v>
@@ -16140,7 +16162,7 @@
         <v>73.50000000000006</v>
       </c>
       <c r="K312" t="n">
-        <v>-26.82926829268291</v>
+        <v>-31.25000000000022</v>
       </c>
       <c r="L312" t="n">
         <v>31.91</v>
@@ -16191,7 +16213,7 @@
         <v>73.70000000000006</v>
       </c>
       <c r="K313" t="n">
-        <v>-23.8095238095238</v>
+        <v>-21.21212121212131</v>
       </c>
       <c r="L313" t="n">
         <v>31.82999999999999</v>

--- a/BackTest/2019-11-01 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-01 BackTest ETZ.xlsx
@@ -766,17 +766,13 @@
         <v>31.83</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>31.6</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -805,22 +801,14 @@
         <v>31.825</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -848,22 +836,14 @@
         <v>31.83</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -891,17 +871,13 @@
         <v>31.835</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -930,22 +906,14 @@
         <v>31.84166666666668</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>32</v>
-      </c>
-      <c r="K15" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -973,22 +941,14 @@
         <v>31.84333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1022,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1057,22 +1011,14 @@
         <v>31.84833333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1106,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1141,22 +1081,14 @@
         <v>31.85</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>32</v>
-      </c>
-      <c r="K20" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1190,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1231,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1272,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1313,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1354,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1395,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1436,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1477,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1518,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1559,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1600,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1641,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1682,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1723,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1764,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1805,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1846,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1887,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1928,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1969,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2010,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2051,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2092,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2256,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2297,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2338,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2379,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2461,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2502,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2584,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2666,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2701,22 +2411,14 @@
         <v>31.92166666666669</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K58" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2750,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2791,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2826,22 +2516,14 @@
         <v>31.89333333333336</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K61" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2869,22 +2551,14 @@
         <v>31.88500000000002</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K62" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2912,22 +2586,14 @@
         <v>31.87833333333336</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="K63" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2955,22 +2621,14 @@
         <v>31.87000000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="K64" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2998,22 +2656,14 @@
         <v>31.86333333333335</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3041,22 +2691,14 @@
         <v>31.85000000000002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3084,22 +2726,14 @@
         <v>31.85333333333336</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="K67" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3127,22 +2761,14 @@
         <v>31.85333333333336</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K68" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3170,22 +2796,14 @@
         <v>31.85333333333336</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="K69" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3213,22 +2831,14 @@
         <v>31.86166666666669</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>32</v>
-      </c>
-      <c r="K70" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +2872,12 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31.9</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3299,17 +2907,13 @@
         <v>31.87333333333336</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>32</v>
-      </c>
-      <c r="K72" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,17 +2946,13 @@
         <v>31.87333333333336</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,17 +2985,13 @@
         <v>31.87500000000002</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>32</v>
-      </c>
-      <c r="K74" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,17 +3024,13 @@
         <v>31.87333333333336</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K75" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,9 +3069,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,9 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3559,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,9 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,17 +3219,13 @@
         <v>31.8666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3678,17 +3258,13 @@
         <v>31.8666666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K81" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,17 +3297,13 @@
         <v>31.86166666666669</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,9 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3811,9 +3381,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,9 +3459,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,9 +3498,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,9 +3576,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,9 +3615,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4139,9 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4180,9 +3732,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,9 +3771,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,9 +3810,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4344,9 +3888,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,19 +3924,17 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>31.9</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1.02948275862069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4427,10 +3967,12 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4493,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4528,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4563,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4668,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -5820,13 +5362,17 @@
         <v>32.53500000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>32</v>
+      </c>
+      <c r="K139" t="n">
+        <v>32</v>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
@@ -5861,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>32</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5896,8 +5448,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>32</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6030,14 +5588,20 @@
         <v>32.55000000000001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>32.5</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6065,14 +5629,20 @@
         <v>32.55000000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>32.7</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6107,7 +5677,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6142,7 +5716,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6177,7 +5755,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6212,7 +5794,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6247,7 +5833,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6282,7 +5872,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6317,7 +5911,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6352,7 +5950,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6387,7 +5989,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6422,7 +6028,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6457,7 +6067,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6492,7 +6106,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6145,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6562,7 +6184,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6597,7 +6223,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6632,7 +6262,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6667,7 +6301,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6702,7 +6340,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6737,7 +6379,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6772,7 +6418,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6807,7 +6457,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6842,7 +6496,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6877,7 +6535,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6912,7 +6574,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6947,7 +6613,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6982,7 +6652,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +6691,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7052,7 +6730,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7087,7 +6769,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7122,7 +6808,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7157,7 +6847,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7192,7 +6886,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7227,7 +6925,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7262,7 +6964,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7297,7 +7003,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7332,7 +7042,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7367,7 +7081,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7402,7 +7120,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7437,7 +7159,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7472,7 +7198,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7507,7 +7237,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7542,7 +7276,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7577,7 +7315,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7612,7 +7354,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7647,7 +7393,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7432,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7717,7 +7471,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7752,7 +7510,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7787,7 +7549,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7822,7 +7588,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7857,7 +7627,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7892,7 +7666,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7927,7 +7705,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7962,7 +7744,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7997,7 +7783,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8032,7 +7822,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8067,7 +7861,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8102,7 +7900,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8137,7 +7939,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +7978,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8207,7 +8017,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8242,7 +8056,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8277,7 +8095,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8312,7 +8134,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8347,7 +8173,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8382,7 +8212,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8417,7 +8251,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8452,7 +8290,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8487,7 +8329,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8522,7 +8368,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8557,7 +8407,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8592,7 +8446,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8627,7 +8485,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8662,7 +8524,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8697,7 +8563,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8732,7 +8602,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8767,7 +8641,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8802,7 +8680,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8719,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8872,7 +8758,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8907,7 +8797,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8942,7 +8836,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8977,7 +8875,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9012,7 +8914,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9047,7 +8953,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9082,7 +8992,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9117,7 +9031,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9152,7 +9070,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9187,7 +9109,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9222,7 +9148,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9257,7 +9187,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9292,7 +9226,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9327,7 +9265,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9362,7 +9304,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9397,7 +9343,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9432,7 +9382,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9467,7 +9421,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9502,7 +9460,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9537,7 +9499,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9572,7 +9538,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9607,7 +9577,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9642,7 +9616,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9677,7 +9655,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9712,7 +9694,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9747,7 +9733,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9782,7 +9772,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9817,7 +9811,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9852,7 +9850,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9887,7 +9889,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9922,7 +9928,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9957,7 +9967,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10006,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10027,7 +10045,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10062,7 +10084,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10097,7 +10123,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10132,7 +10162,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10167,7 +10201,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10202,7 +10240,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10237,7 +10279,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10272,7 +10318,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10307,7 +10357,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10342,7 +10396,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10377,7 +10435,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10412,7 +10474,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10447,7 +10513,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +10552,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10517,7 +10591,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10552,7 +10630,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10587,7 +10669,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10622,7 +10708,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10657,7 +10747,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10692,7 +10786,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10727,7 +10825,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10762,7 +10864,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10797,7 +10903,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10832,7 +10942,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10867,7 +10981,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10902,7 +11020,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10937,7 +11059,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10972,7 +11098,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11007,7 +11137,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11042,7 +11176,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11077,7 +11215,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11112,7 +11254,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11293,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11182,7 +11332,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-01 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>38224.4354</v>
       </c>
       <c r="G2" t="n">
+        <v>31.97333333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>31.92333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5607.4613</v>
       </c>
       <c r="G3" t="n">
+        <v>32.02000000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>31.93333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>48</v>
       </c>
       <c r="G4" t="n">
+        <v>32.04666666666669</v>
+      </c>
+      <c r="H4" t="n">
         <v>31.93166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
+        <v>32.08666666666669</v>
+      </c>
+      <c r="H5" t="n">
         <v>31.93166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>4990</v>
       </c>
       <c r="G6" t="n">
+        <v>32.12000000000003</v>
+      </c>
+      <c r="H6" t="n">
         <v>31.92666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5010.9059</v>
       </c>
       <c r="G7" t="n">
+        <v>32.11333333333336</v>
+      </c>
+      <c r="H7" t="n">
         <v>31.91833333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>72926.5371</v>
       </c>
       <c r="G8" t="n">
+        <v>32.07333333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>31.895</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,27 @@
         <v>4059.7842</v>
       </c>
       <c r="G9" t="n">
+        <v>32.06000000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>31.87333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.5</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +763,27 @@
         <v>18541.2052</v>
       </c>
       <c r="G10" t="n">
+        <v>32.00666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>31.85333333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.3</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +807,27 @@
         <v>7678.0847</v>
       </c>
       <c r="G11" t="n">
+        <v>31.96666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>31.84166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.3</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +851,27 @@
         <v>18495.0292</v>
       </c>
       <c r="G12" t="n">
+        <v>31.93333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>31.83</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31.5</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +895,27 @@
         <v>400</v>
       </c>
       <c r="G13" t="n">
+        <v>31.90666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>31.825</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31.6</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +939,27 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="H14" t="n">
         <v>31.83</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>31.7</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +983,27 @@
         <v>34651.8408</v>
       </c>
       <c r="G15" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="H15" t="n">
         <v>31.835</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>31.9</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1027,25 @@
         <v>30</v>
       </c>
       <c r="G16" t="n">
+        <v>31.85333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>31.84166666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1069,25 @@
         <v>3980.8654</v>
       </c>
       <c r="G17" t="n">
+        <v>31.82666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>31.84333333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1111,25 @@
         <v>40</v>
       </c>
       <c r="G18" t="n">
+        <v>31.80666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>31.85000000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1153,25 @@
         <v>16313.4306</v>
       </c>
       <c r="G19" t="n">
+        <v>31.78666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>31.84833333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1195,25 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
+        <v>31.77333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>31.84833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1237,25 @@
         <v>391</v>
       </c>
       <c r="G21" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="H21" t="n">
         <v>31.85</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1279,25 @@
         <v>16348.627</v>
       </c>
       <c r="G22" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="H22" t="n">
         <v>31.85666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1321,25 @@
         <v>38080.1302</v>
       </c>
       <c r="G23" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="H23" t="n">
         <v>31.865</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1363,25 @@
         <v>1736.1111</v>
       </c>
       <c r="G24" t="n">
+        <v>31.89333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>31.87166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1405,25 @@
         <v>122612.8706</v>
       </c>
       <c r="G25" t="n">
+        <v>31.92666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>31.865</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1447,25 @@
         <v>2500</v>
       </c>
       <c r="G26" t="n">
+        <v>31.94666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>31.85666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1489,25 @@
         <v>46622.759</v>
       </c>
       <c r="G27" t="n">
+        <v>31.95333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>31.84666666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1531,25 @@
         <v>22</v>
       </c>
       <c r="G28" t="n">
+        <v>31.97333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>31.84666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1573,25 @@
         <v>44</v>
       </c>
       <c r="G29" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="H29" t="n">
         <v>31.84666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1615,25 @@
         <v>33130.9937</v>
       </c>
       <c r="G30" t="n">
+        <v>31.96666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>31.83666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1657,27 @@
         <v>19</v>
       </c>
       <c r="G31" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="H31" t="n">
         <v>31.83166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>31.7</v>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1701,27 @@
         <v>392.2602</v>
       </c>
       <c r="G32" t="n">
+        <v>31.97333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>31.83166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>31.9</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1745,27 @@
         <v>324</v>
       </c>
       <c r="G33" t="n">
+        <v>31.97333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>31.82833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>32</v>
+      </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1789,27 @@
         <v>10.3767</v>
       </c>
       <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
         <v>31.83666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>32</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1833,27 @@
         <v>143</v>
       </c>
       <c r="G35" t="n">
+        <v>32.01333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>31.84500000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>32.2</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1877,25 @@
         <v>24</v>
       </c>
       <c r="G36" t="n">
+        <v>32.02666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>31.86166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1919,25 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="H37" t="n">
         <v>31.875</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1961,25 @@
         <v>21.7391</v>
       </c>
       <c r="G38" t="n">
+        <v>32.00666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>31.88</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2003,25 @@
         <v>23919.6889</v>
       </c>
       <c r="G39" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="H39" t="n">
         <v>31.895</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2045,25 @@
         <v>98.78</v>
       </c>
       <c r="G40" t="n">
+        <v>32.00666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>31.89833333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2087,25 @@
         <v>38080.1302</v>
       </c>
       <c r="G41" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="H41" t="n">
         <v>31.90166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2129,27 @@
         <v>29</v>
       </c>
       <c r="G42" t="n">
+        <v>32.00666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>31.91166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>31.4</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2173,25 @@
         <v>30691.0869</v>
       </c>
       <c r="G43" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="H43" t="n">
         <v>31.92166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2215,25 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="H44" t="n">
         <v>31.93166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2257,25 @@
         <v>2802.9483</v>
       </c>
       <c r="G45" t="n">
+        <v>32.00666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>31.92833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2299,25 @@
         <v>19331.3836</v>
       </c>
       <c r="G46" t="n">
+        <v>31.98000000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>31.93166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2341,25 @@
         <v>60</v>
       </c>
       <c r="G47" t="n">
+        <v>31.96666666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>31.93500000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2383,27 @@
         <v>34452.6216</v>
       </c>
       <c r="G48" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="H48" t="n">
         <v>31.94000000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>31.8</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2427,27 @@
         <v>20</v>
       </c>
       <c r="G49" t="n">
+        <v>31.94666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>31.94500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>31.9</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2471,25 @@
         <v>54253.8515</v>
       </c>
       <c r="G50" t="n">
+        <v>31.93333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>31.95166666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2513,25 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
+        <v>31.92000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>31.95666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2555,25 @@
         <v>7.2562</v>
       </c>
       <c r="G52" t="n">
+        <v>31.92000000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>31.95333333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2597,25 @@
         <v>13.7438</v>
       </c>
       <c r="G53" t="n">
+        <v>31.90666666666668</v>
+      </c>
+      <c r="H53" t="n">
         <v>31.95166666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2639,25 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
+        <v>31.90666666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>31.96000000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2681,25 @@
         <v>3011.0809</v>
       </c>
       <c r="G55" t="n">
+        <v>31.86000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>31.95000000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2723,25 @@
         <v>143351.529</v>
       </c>
       <c r="G56" t="n">
+        <v>31.86000000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>31.93833333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2765,25 @@
         <v>17</v>
       </c>
       <c r="G57" t="n">
+        <v>31.83333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>31.93166666666668</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2807,25 @@
         <v>527.4736</v>
       </c>
       <c r="G58" t="n">
+        <v>31.81333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>31.92833333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2849,27 @@
         <v>144520.4702</v>
       </c>
       <c r="G59" t="n">
+        <v>31.80666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>31.92166666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>31.9</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2893,25 @@
         <v>67283.6992</v>
       </c>
       <c r="G60" t="n">
+        <v>31.78666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>31.90500000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2935,27 @@
         <v>11</v>
       </c>
       <c r="G61" t="n">
+        <v>31.80666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>31.90000000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>31.2</v>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2979,25 @@
         <v>118401.007</v>
       </c>
       <c r="G62" t="n">
+        <v>31.80666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>31.89333333333336</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3021,25 @@
         <v>75089.0243</v>
       </c>
       <c r="G63" t="n">
+        <v>31.80000000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>31.88500000000002</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3063,25 @@
         <v>17</v>
       </c>
       <c r="G64" t="n">
+        <v>31.78000000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>31.87833333333336</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3105,25 @@
         <v>12762.8864</v>
       </c>
       <c r="G65" t="n">
+        <v>31.76000000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>31.87000000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3147,25 @@
         <v>18</v>
       </c>
       <c r="G66" t="n">
+        <v>31.74666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>31.86333333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3189,25 @@
         <v>15704.1786</v>
       </c>
       <c r="G67" t="n">
+        <v>31.70000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>31.85000000000002</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3231,25 @@
         <v>17</v>
       </c>
       <c r="G68" t="n">
+        <v>31.68000000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>31.85333333333336</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3273,25 @@
         <v>61139.6516</v>
       </c>
       <c r="G69" t="n">
+        <v>31.63333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>31.85333333333336</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3315,25 @@
         <v>427.1091</v>
       </c>
       <c r="G70" t="n">
+        <v>31.62000000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>31.85333333333336</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3357,25 @@
         <v>22</v>
       </c>
       <c r="G71" t="n">
+        <v>31.66000000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>31.86166666666669</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3399,25 @@
         <v>59647.3125</v>
       </c>
       <c r="G72" t="n">
+        <v>31.68000000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>31.86833333333336</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3441,25 @@
         <v>60</v>
       </c>
       <c r="G73" t="n">
+        <v>31.68666666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>31.87333333333336</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3483,25 @@
         <v>19</v>
       </c>
       <c r="G74" t="n">
+        <v>31.68666666666668</v>
+      </c>
+      <c r="H74" t="n">
         <v>31.87333333333336</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3525,25 @@
         <v>20</v>
       </c>
       <c r="G75" t="n">
+        <v>31.74000000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>31.87500000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3567,25 @@
         <v>16564.0752</v>
       </c>
       <c r="G76" t="n">
+        <v>31.74666666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>31.87333333333336</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3609,25 @@
         <v>33223.7392</v>
       </c>
       <c r="G77" t="n">
+        <v>31.75333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>31.87500000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3651,25 @@
         <v>33240.625</v>
       </c>
       <c r="G78" t="n">
+        <v>31.76666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>31.87500000000002</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3693,27 @@
         <v>56019</v>
       </c>
       <c r="G79" t="n">
+        <v>31.78000000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>31.8766666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>32</v>
+      </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3737,25 @@
         <v>14810.202</v>
       </c>
       <c r="G80" t="n">
+        <v>31.76666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>31.86833333333336</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3779,27 @@
         <v>19</v>
       </c>
       <c r="G81" t="n">
+        <v>31.77333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>31.8666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>31.5</v>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3823,27 @@
         <v>33203.9949</v>
       </c>
       <c r="G82" t="n">
+        <v>31.82666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>31.8666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>31.9</v>
+      </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3867,25 @@
         <v>400</v>
       </c>
       <c r="G83" t="n">
+        <v>31.85333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>31.86166666666669</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3909,25 @@
         <v>9616.884700000001</v>
       </c>
       <c r="G84" t="n">
+        <v>31.90666666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>31.85666666666669</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3951,25 @@
         <v>19827.9014</v>
       </c>
       <c r="G85" t="n">
+        <v>31.96666666666668</v>
+      </c>
+      <c r="H85" t="n">
         <v>31.86333333333336</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3993,25 @@
         <v>13323.4953</v>
       </c>
       <c r="G86" t="n">
+        <v>31.98000000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>31.87000000000003</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4035,25 @@
         <v>10.1</v>
       </c>
       <c r="G87" t="n">
+        <v>31.99333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>31.87833333333336</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4077,25 @@
         <v>91777.7215</v>
       </c>
       <c r="G88" t="n">
+        <v>32.02666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>31.8866666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4119,25 @@
         <v>105002.4658</v>
       </c>
       <c r="G89" t="n">
+        <v>32.07333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>31.89666666666669</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4161,25 @@
         <v>18142.6269</v>
       </c>
       <c r="G90" t="n">
+        <v>32.12000000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>31.91333333333336</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4203,25 @@
         <v>20</v>
       </c>
       <c r="G91" t="n">
+        <v>32.17333333333335</v>
+      </c>
+      <c r="H91" t="n">
         <v>31.92666666666669</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4245,25 @@
         <v>24549.9539</v>
       </c>
       <c r="G92" t="n">
+        <v>32.22000000000002</v>
+      </c>
+      <c r="H92" t="n">
         <v>31.93666666666669</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4287,25 @@
         <v>2880.008</v>
       </c>
       <c r="G93" t="n">
+        <v>32.26000000000002</v>
+      </c>
+      <c r="H93" t="n">
         <v>31.94666666666669</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4329,25 @@
         <v>125578.4107</v>
       </c>
       <c r="G94" t="n">
+        <v>32.32666666666669</v>
+      </c>
+      <c r="H94" t="n">
         <v>31.95833333333336</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4371,25 @@
         <v>45604.4893</v>
       </c>
       <c r="G95" t="n">
+        <v>32.42000000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>31.97000000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4413,25 @@
         <v>20517.4522</v>
       </c>
       <c r="G96" t="n">
+        <v>32.49333333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>31.98333333333336</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4455,25 @@
         <v>124104.2682044776</v>
       </c>
       <c r="G97" t="n">
+        <v>32.58666666666669</v>
+      </c>
+      <c r="H97" t="n">
         <v>32.00833333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4497,25 @@
         <v>85313.1773</v>
       </c>
       <c r="G98" t="n">
+        <v>32.67333333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>32.02833333333336</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4539,25 @@
         <v>43219.9082</v>
       </c>
       <c r="G99" t="n">
+        <v>32.73333333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>32.04500000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4581,25 @@
         <v>52361.0803</v>
       </c>
       <c r="G100" t="n">
+        <v>32.78666666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>32.05833333333336</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4623,25 @@
         <v>56716.3962</v>
       </c>
       <c r="G101" t="n">
+        <v>32.85333333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>32.08833333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4665,25 @@
         <v>23086.474</v>
       </c>
       <c r="G102" t="n">
+        <v>32.92000000000002</v>
+      </c>
+      <c r="H102" t="n">
         <v>32.10666666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4707,25 @@
         <v>10179.2132</v>
       </c>
       <c r="G103" t="n">
+        <v>32.93333333333335</v>
+      </c>
+      <c r="H103" t="n">
         <v>32.11500000000002</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4749,25 @@
         <v>11738.5808</v>
       </c>
       <c r="G104" t="n">
+        <v>32.98000000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>32.13666666666669</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4791,25 @@
         <v>40829.7597</v>
       </c>
       <c r="G105" t="n">
+        <v>33.02000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>32.16666666666669</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4833,25 @@
         <v>34096.9811</v>
       </c>
       <c r="G106" t="n">
+        <v>33.00000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>32.18166666666669</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4875,25 @@
         <v>300.1259</v>
       </c>
       <c r="G107" t="n">
+        <v>33.03333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>32.20333333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4917,25 @@
         <v>59696.4848</v>
       </c>
       <c r="G108" t="n">
+        <v>33.06000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>32.22166666666669</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4959,25 @@
         <v>28170.2275</v>
       </c>
       <c r="G109" t="n">
+        <v>33.04666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>32.23333333333336</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +5001,25 @@
         <v>59897.3516</v>
       </c>
       <c r="G110" t="n">
+        <v>33.03333333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>32.24500000000003</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +5043,25 @@
         <v>39788.6729</v>
       </c>
       <c r="G111" t="n">
+        <v>33.00000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>32.25333333333336</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +5085,25 @@
         <v>1227.6625</v>
       </c>
       <c r="G112" t="n">
+        <v>32.93333333333335</v>
+      </c>
+      <c r="H112" t="n">
         <v>32.26166666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5127,25 @@
         <v>5145.9516</v>
       </c>
       <c r="G113" t="n">
+        <v>32.91333333333335</v>
+      </c>
+      <c r="H113" t="n">
         <v>32.28000000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5169,25 @@
         <v>102688.8817</v>
       </c>
       <c r="G114" t="n">
+        <v>32.84666666666669</v>
+      </c>
+      <c r="H114" t="n">
         <v>32.28000000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5211,25 @@
         <v>70.32510000000001</v>
       </c>
       <c r="G115" t="n">
+        <v>32.81333333333335</v>
+      </c>
+      <c r="H115" t="n">
         <v>32.29666666666669</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5253,25 @@
         <v>16</v>
       </c>
       <c r="G116" t="n">
+        <v>32.77333333333335</v>
+      </c>
+      <c r="H116" t="n">
         <v>32.31666666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5295,25 @@
         <v>50702.3338</v>
       </c>
       <c r="G117" t="n">
+        <v>32.70000000000002</v>
+      </c>
+      <c r="H117" t="n">
         <v>32.32333333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5337,25 @@
         <v>4279.3508</v>
       </c>
       <c r="G118" t="n">
+        <v>32.66000000000002</v>
+      </c>
+      <c r="H118" t="n">
         <v>32.32666666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5379,25 @@
         <v>50004.6532</v>
       </c>
       <c r="G119" t="n">
+        <v>32.62000000000002</v>
+      </c>
+      <c r="H119" t="n">
         <v>32.34000000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5421,25 @@
         <v>20409.9494</v>
       </c>
       <c r="G120" t="n">
+        <v>32.52666666666669</v>
+      </c>
+      <c r="H120" t="n">
         <v>32.35166666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,22 +5463,25 @@
         <v>10427.1092</v>
       </c>
       <c r="G121" t="n">
+        <v>32.49333333333335</v>
+      </c>
+      <c r="H121" t="n">
         <v>32.35333333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K121" t="n">
-        <v>31.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,26 +5505,25 @@
         <v>64945.0763</v>
       </c>
       <c r="G122" t="n">
+        <v>32.46666666666669</v>
+      </c>
+      <c r="H122" t="n">
         <v>32.36833333333335</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="K122" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4695,24 +5547,25 @@
         <v>159054.9947</v>
       </c>
       <c r="G123" t="n">
+        <v>32.42666666666669</v>
+      </c>
+      <c r="H123" t="n">
         <v>32.37833333333335</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5589,25 @@
         <v>57904.4387</v>
       </c>
       <c r="G124" t="n">
+        <v>32.42666666666669</v>
+      </c>
+      <c r="H124" t="n">
         <v>32.39500000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,22 +5631,25 @@
         <v>1595.6134</v>
       </c>
       <c r="G125" t="n">
+        <v>32.42000000000002</v>
+      </c>
+      <c r="H125" t="n">
         <v>32.41000000000002</v>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K125" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,24 +5673,25 @@
         <v>19721.9042</v>
       </c>
       <c r="G126" t="n">
+        <v>32.42666666666669</v>
+      </c>
+      <c r="H126" t="n">
         <v>32.42333333333335</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4851,24 +5715,25 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
+        <v>32.44000000000003</v>
+      </c>
+      <c r="H127" t="n">
         <v>32.44666666666669</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5757,25 @@
         <v>4472.15</v>
       </c>
       <c r="G128" t="n">
+        <v>32.41333333333336</v>
+      </c>
+      <c r="H128" t="n">
         <v>32.46333333333335</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5799,25 @@
         <v>1053.3105</v>
       </c>
       <c r="G129" t="n">
+        <v>32.45333333333336</v>
+      </c>
+      <c r="H129" t="n">
         <v>32.48500000000002</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5841,25 @@
         <v>80</v>
       </c>
       <c r="G130" t="n">
+        <v>32.46000000000003</v>
+      </c>
+      <c r="H130" t="n">
         <v>32.50666666666668</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5883,25 @@
         <v>38714.7579</v>
       </c>
       <c r="G131" t="n">
+        <v>32.42000000000003</v>
+      </c>
+      <c r="H131" t="n">
         <v>32.50666666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5925,25 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
+        <v>32.44666666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>32.51500000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +5967,25 @@
         <v>19827.9816</v>
       </c>
       <c r="G133" t="n">
+        <v>32.44000000000003</v>
+      </c>
+      <c r="H133" t="n">
         <v>32.51500000000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +6009,25 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
+        <v>32.41333333333336</v>
+      </c>
+      <c r="H134" t="n">
         <v>32.52166666666668</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +6051,25 @@
         <v>21</v>
       </c>
       <c r="G135" t="n">
+        <v>32.44666666666669</v>
+      </c>
+      <c r="H135" t="n">
         <v>32.52833333333335</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +6093,25 @@
         <v>153.031</v>
       </c>
       <c r="G136" t="n">
+        <v>32.46000000000003</v>
+      </c>
+      <c r="H136" t="n">
         <v>32.53166666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +6135,25 @@
         <v>68837.40240000001</v>
       </c>
       <c r="G137" t="n">
+        <v>32.3866666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>32.52666666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +6177,25 @@
         <v>557.0976000000001</v>
       </c>
       <c r="G138" t="n">
+        <v>32.34000000000003</v>
+      </c>
+      <c r="H138" t="n">
         <v>32.52166666666668</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +6219,25 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
+        <v>32.29333333333336</v>
+      </c>
+      <c r="H139" t="n">
         <v>32.52333333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +6261,25 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
+        <v>32.26666666666669</v>
+      </c>
+      <c r="H140" t="n">
         <v>32.53500000000001</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +6303,25 @@
         <v>10503.8488</v>
       </c>
       <c r="G141" t="n">
+        <v>32.21333333333336</v>
+      </c>
+      <c r="H141" t="n">
         <v>32.53333333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,22 +6345,25 @@
         <v>12</v>
       </c>
       <c r="G142" t="n">
+        <v>32.17333333333336</v>
+      </c>
+      <c r="H142" t="n">
         <v>32.53333333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K142" t="n">
-        <v>31.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5421,26 +6387,25 @@
         <v>8882.5766</v>
       </c>
       <c r="G143" t="n">
+        <v>32.14000000000003</v>
+      </c>
+      <c r="H143" t="n">
         <v>32.53500000000001</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,24 +6429,25 @@
         <v>5789.2239</v>
       </c>
       <c r="G144" t="n">
+        <v>32.11333333333336</v>
+      </c>
+      <c r="H144" t="n">
         <v>32.53666666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,18 +6471,25 @@
         <v>15</v>
       </c>
       <c r="G145" t="n">
+        <v>32.10666666666669</v>
+      </c>
+      <c r="H145" t="n">
         <v>32.54166666666668</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,18 +6513,25 @@
         <v>74264.67879999999</v>
       </c>
       <c r="G146" t="n">
+        <v>32.15333333333336</v>
+      </c>
+      <c r="H146" t="n">
         <v>32.55000000000001</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,18 +6555,25 @@
         <v>242</v>
       </c>
       <c r="G147" t="n">
+        <v>32.13333333333336</v>
+      </c>
+      <c r="H147" t="n">
         <v>32.55000000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,18 +6597,25 @@
         <v>66385.69010000001</v>
       </c>
       <c r="G148" t="n">
+        <v>32.18000000000004</v>
+      </c>
+      <c r="H148" t="n">
         <v>32.55333333333335</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,18 +6639,25 @@
         <v>4905.3678</v>
       </c>
       <c r="G149" t="n">
+        <v>32.1866666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>32.55000000000002</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,18 +6681,25 @@
         <v>61822.5228</v>
       </c>
       <c r="G150" t="n">
+        <v>32.2066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>32.55000000000002</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,18 +6723,25 @@
         <v>59498.1942</v>
       </c>
       <c r="G151" t="n">
+        <v>32.2466666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>32.55000000000002</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,18 +6765,25 @@
         <v>20010</v>
       </c>
       <c r="G152" t="n">
+        <v>32.3266666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>32.55333333333335</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,18 +6807,25 @@
         <v>457</v>
       </c>
       <c r="G153" t="n">
+        <v>32.40000000000003</v>
+      </c>
+      <c r="H153" t="n">
         <v>32.55666666666669</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,18 +6849,25 @@
         <v>124.6385</v>
       </c>
       <c r="G154" t="n">
+        <v>32.48000000000003</v>
+      </c>
+      <c r="H154" t="n">
         <v>32.56166666666668</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,18 +6891,25 @@
         <v>10</v>
       </c>
       <c r="G155" t="n">
+        <v>32.5466666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>32.56666666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,18 +6933,25 @@
         <v>5334.1867</v>
       </c>
       <c r="G156" t="n">
+        <v>32.64000000000003</v>
+      </c>
+      <c r="H156" t="n">
         <v>32.57000000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5925,18 +6975,25 @@
         <v>31812.7977</v>
       </c>
       <c r="G157" t="n">
+        <v>32.71333333333336</v>
+      </c>
+      <c r="H157" t="n">
         <v>32.56500000000002</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5960,18 +7017,25 @@
         <v>1747.3867</v>
       </c>
       <c r="G158" t="n">
+        <v>32.77333333333336</v>
+      </c>
+      <c r="H158" t="n">
         <v>32.56000000000002</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5995,18 +7059,25 @@
         <v>5320.8513</v>
       </c>
       <c r="G159" t="n">
+        <v>32.80000000000003</v>
+      </c>
+      <c r="H159" t="n">
         <v>32.55333333333335</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6030,18 +7101,25 @@
         <v>282.0816</v>
       </c>
       <c r="G160" t="n">
+        <v>32.83333333333336</v>
+      </c>
+      <c r="H160" t="n">
         <v>32.55333333333335</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,18 +7143,25 @@
         <v>32677.3061</v>
       </c>
       <c r="G161" t="n">
+        <v>32.82000000000003</v>
+      </c>
+      <c r="H161" t="n">
         <v>32.54166666666668</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,18 +7185,25 @@
         <v>29467.303</v>
       </c>
       <c r="G162" t="n">
+        <v>32.87333333333336</v>
+      </c>
+      <c r="H162" t="n">
         <v>32.53833333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6135,18 +7227,25 @@
         <v>44596.636</v>
       </c>
       <c r="G163" t="n">
+        <v>32.90000000000003</v>
+      </c>
+      <c r="H163" t="n">
         <v>32.54500000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6170,18 +7269,25 @@
         <v>30000</v>
       </c>
       <c r="G164" t="n">
+        <v>32.95333333333336</v>
+      </c>
+      <c r="H164" t="n">
         <v>32.54333333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6205,18 +7311,25 @@
         <v>224.0719</v>
       </c>
       <c r="G165" t="n">
+        <v>32.96000000000002</v>
+      </c>
+      <c r="H165" t="n">
         <v>32.53500000000001</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6240,18 +7353,25 @@
         <v>11723.9316</v>
       </c>
       <c r="G166" t="n">
+        <v>32.96666666666669</v>
+      </c>
+      <c r="H166" t="n">
         <v>32.54166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6275,18 +7395,25 @@
         <v>268.9514</v>
       </c>
       <c r="G167" t="n">
+        <v>32.99333333333336</v>
+      </c>
+      <c r="H167" t="n">
         <v>32.54333333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,18 +7437,25 @@
         <v>61649.0597</v>
       </c>
       <c r="G168" t="n">
+        <v>33.03333333333336</v>
+      </c>
+      <c r="H168" t="n">
         <v>32.55000000000001</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6345,18 +7479,25 @@
         <v>10909.2814</v>
       </c>
       <c r="G169" t="n">
+        <v>33.0466666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>32.56166666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6380,18 +7521,25 @@
         <v>6799.7462</v>
       </c>
       <c r="G170" t="n">
+        <v>33.06000000000003</v>
+      </c>
+      <c r="H170" t="n">
         <v>32.57333333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,18 +7563,25 @@
         <v>6169.3777</v>
       </c>
       <c r="G171" t="n">
+        <v>33.08666666666669</v>
+      </c>
+      <c r="H171" t="n">
         <v>32.59166666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6450,18 +7605,25 @@
         <v>15045.9574</v>
       </c>
       <c r="G172" t="n">
+        <v>33.13333333333337</v>
+      </c>
+      <c r="H172" t="n">
         <v>32.61500000000002</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6485,20 +7647,25 @@
         <v>56516.6567</v>
       </c>
       <c r="G173" t="n">
+        <v>33.17333333333337</v>
+      </c>
+      <c r="H173" t="n">
         <v>32.62500000000001</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6520,18 +7687,21 @@
         <v>53137.4556</v>
       </c>
       <c r="G174" t="n">
+        <v>33.24000000000003</v>
+      </c>
+      <c r="H174" t="n">
         <v>32.65166666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6555,18 +7725,21 @@
         <v>11085.9726</v>
       </c>
       <c r="G175" t="n">
+        <v>33.26000000000003</v>
+      </c>
+      <c r="H175" t="n">
         <v>32.66500000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6590,18 +7763,21 @@
         <v>866</v>
       </c>
       <c r="G176" t="n">
+        <v>33.26666666666669</v>
+      </c>
+      <c r="H176" t="n">
         <v>32.66500000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6625,18 +7801,21 @@
         <v>547929.5932999999</v>
       </c>
       <c r="G177" t="n">
+        <v>33.26666666666669</v>
+      </c>
+      <c r="H177" t="n">
         <v>32.68000000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6660,18 +7839,21 @@
         <v>25276.2207</v>
       </c>
       <c r="G178" t="n">
+        <v>33.26000000000003</v>
+      </c>
+      <c r="H178" t="n">
         <v>32.69500000000001</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6695,18 +7877,21 @@
         <v>13281.1011</v>
       </c>
       <c r="G179" t="n">
+        <v>33.2866666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>32.71000000000002</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6730,18 +7915,21 @@
         <v>5803.279</v>
       </c>
       <c r="G180" t="n">
+        <v>33.32000000000003</v>
+      </c>
+      <c r="H180" t="n">
         <v>32.73333333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,18 +7953,21 @@
         <v>147.3638</v>
       </c>
       <c r="G181" t="n">
+        <v>33.35333333333337</v>
+      </c>
+      <c r="H181" t="n">
         <v>32.75666666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6800,18 +7991,21 @@
         <v>33.5</v>
       </c>
       <c r="G182" t="n">
+        <v>33.37333333333336</v>
+      </c>
+      <c r="H182" t="n">
         <v>32.77000000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6835,18 +8029,21 @@
         <v>9935.513000000001</v>
       </c>
       <c r="G183" t="n">
+        <v>33.38000000000002</v>
+      </c>
+      <c r="H183" t="n">
         <v>32.78833333333334</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,18 +8067,21 @@
         <v>9910.674300000001</v>
       </c>
       <c r="G184" t="n">
+        <v>33.36000000000003</v>
+      </c>
+      <c r="H184" t="n">
         <v>32.795</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6905,18 +8105,21 @@
         <v>320600.1278</v>
       </c>
       <c r="G185" t="n">
+        <v>33.33333333333336</v>
+      </c>
+      <c r="H185" t="n">
         <v>32.80166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6940,18 +8143,21 @@
         <v>48927.0393</v>
       </c>
       <c r="G186" t="n">
+        <v>33.27333333333336</v>
+      </c>
+      <c r="H186" t="n">
         <v>32.80333333333334</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6975,18 +8181,21 @@
         <v>53750.836</v>
       </c>
       <c r="G187" t="n">
+        <v>33.19333333333337</v>
+      </c>
+      <c r="H187" t="n">
         <v>32.80333333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7010,18 +8219,21 @@
         <v>19786.9595</v>
       </c>
       <c r="G188" t="n">
+        <v>33.1466666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>32.80833333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7045,18 +8257,21 @@
         <v>24557.8911</v>
       </c>
       <c r="G189" t="n">
+        <v>33.1066666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>32.81500000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7080,18 +8295,21 @@
         <v>2845.3512</v>
       </c>
       <c r="G190" t="n">
+        <v>33.06000000000003</v>
+      </c>
+      <c r="H190" t="n">
         <v>32.81500000000001</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7115,18 +8333,21 @@
         <v>2090.3267</v>
       </c>
       <c r="G191" t="n">
+        <v>33.06000000000003</v>
+      </c>
+      <c r="H191" t="n">
         <v>32.82500000000001</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7150,18 +8371,21 @@
         <v>28833.9184</v>
       </c>
       <c r="G192" t="n">
+        <v>33.04000000000003</v>
+      </c>
+      <c r="H192" t="n">
         <v>32.82833333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7185,18 +8409,21 @@
         <v>4581.0071</v>
       </c>
       <c r="G193" t="n">
+        <v>33.02000000000003</v>
+      </c>
+      <c r="H193" t="n">
         <v>32.84000000000001</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,18 +8447,21 @@
         <v>19781.4671</v>
       </c>
       <c r="G194" t="n">
+        <v>32.96000000000004</v>
+      </c>
+      <c r="H194" t="n">
         <v>32.84666666666668</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7255,18 +8485,21 @@
         <v>74795.852</v>
       </c>
       <c r="G195" t="n">
+        <v>32.92000000000004</v>
+      </c>
+      <c r="H195" t="n">
         <v>32.85166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7290,18 +8523,21 @@
         <v>30195.6671</v>
       </c>
       <c r="G196" t="n">
+        <v>32.88000000000004</v>
+      </c>
+      <c r="H196" t="n">
         <v>32.86166666666668</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7325,18 +8561,21 @@
         <v>11</v>
       </c>
       <c r="G197" t="n">
+        <v>32.84000000000004</v>
+      </c>
+      <c r="H197" t="n">
         <v>32.88333333333335</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7360,18 +8599,21 @@
         <v>14279.0307</v>
       </c>
       <c r="G198" t="n">
+        <v>32.78666666666671</v>
+      </c>
+      <c r="H198" t="n">
         <v>32.90000000000001</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7395,18 +8637,21 @@
         <v>11</v>
       </c>
       <c r="G199" t="n">
+        <v>32.77333333333338</v>
+      </c>
+      <c r="H199" t="n">
         <v>32.91500000000001</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7430,18 +8675,21 @@
         <v>12730.8868</v>
       </c>
       <c r="G200" t="n">
+        <v>32.7666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>32.92666666666668</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7465,18 +8713,21 @@
         <v>304</v>
       </c>
       <c r="G201" t="n">
+        <v>32.7866666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>32.94666666666669</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7500,18 +8751,21 @@
         <v>20851.1376</v>
       </c>
       <c r="G202" t="n">
+        <v>32.80666666666671</v>
+      </c>
+      <c r="H202" t="n">
         <v>32.96166666666669</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7535,18 +8789,21 @@
         <v>270.1249</v>
       </c>
       <c r="G203" t="n">
+        <v>32.81333333333338</v>
+      </c>
+      <c r="H203" t="n">
         <v>32.97666666666668</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7570,18 +8827,21 @@
         <v>3719.033232628399</v>
       </c>
       <c r="G204" t="n">
+        <v>32.82000000000004</v>
+      </c>
+      <c r="H204" t="n">
         <v>32.99166666666668</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7605,18 +8865,21 @@
         <v>1794.841867371601</v>
       </c>
       <c r="G205" t="n">
+        <v>32.85333333333337</v>
+      </c>
+      <c r="H205" t="n">
         <v>33.00166666666668</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7640,18 +8903,21 @@
         <v>44460.8328</v>
       </c>
       <c r="G206" t="n">
+        <v>32.88000000000004</v>
+      </c>
+      <c r="H206" t="n">
         <v>33.00666666666668</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7675,18 +8941,21 @@
         <v>44763.8632</v>
       </c>
       <c r="G207" t="n">
+        <v>32.91333333333338</v>
+      </c>
+      <c r="H207" t="n">
         <v>33.02333333333335</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7710,18 +8979,21 @@
         <v>50000</v>
       </c>
       <c r="G208" t="n">
+        <v>32.93333333333338</v>
+      </c>
+      <c r="H208" t="n">
         <v>33.02833333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7745,18 +9017,21 @@
         <v>5000</v>
       </c>
       <c r="G209" t="n">
+        <v>32.95333333333338</v>
+      </c>
+      <c r="H209" t="n">
         <v>33.03833333333334</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7780,18 +9055,21 @@
         <v>45217.8742326284</v>
       </c>
       <c r="G210" t="n">
+        <v>32.94000000000004</v>
+      </c>
+      <c r="H210" t="n">
         <v>33.03500000000001</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7815,18 +9093,21 @@
         <v>9013.4638</v>
       </c>
       <c r="G211" t="n">
+        <v>32.93333333333337</v>
+      </c>
+      <c r="H211" t="n">
         <v>33.03333333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7850,18 +9131,21 @@
         <v>546.5438</v>
       </c>
       <c r="G212" t="n">
+        <v>32.91333333333338</v>
+      </c>
+      <c r="H212" t="n">
         <v>33.03000000000001</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7885,18 +9169,21 @@
         <v>306.7484</v>
       </c>
       <c r="G213" t="n">
+        <v>32.92000000000004</v>
+      </c>
+      <c r="H213" t="n">
         <v>33.03000000000001</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7920,18 +9207,21 @@
         <v>1251.128</v>
       </c>
       <c r="G214" t="n">
+        <v>32.91333333333338</v>
+      </c>
+      <c r="H214" t="n">
         <v>33.02333333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7955,18 +9245,21 @@
         <v>6047.7509</v>
       </c>
       <c r="G215" t="n">
+        <v>32.89333333333338</v>
+      </c>
+      <c r="H215" t="n">
         <v>33.01333333333334</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7990,18 +9283,21 @@
         <v>6652.1212</v>
       </c>
       <c r="G216" t="n">
+        <v>32.86000000000004</v>
+      </c>
+      <c r="H216" t="n">
         <v>33.00166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8025,18 +9321,21 @@
         <v>315</v>
       </c>
       <c r="G217" t="n">
+        <v>32.85333333333337</v>
+      </c>
+      <c r="H217" t="n">
         <v>32.99666666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8060,18 +9359,21 @@
         <v>11</v>
       </c>
       <c r="G218" t="n">
+        <v>32.84000000000004</v>
+      </c>
+      <c r="H218" t="n">
         <v>32.99333333333334</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8095,18 +9397,21 @@
         <v>303.9513</v>
       </c>
       <c r="G219" t="n">
+        <v>32.8266666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>32.99833333333334</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8130,18 +9435,21 @@
         <v>64198.8541</v>
       </c>
       <c r="G220" t="n">
+        <v>32.79333333333337</v>
+      </c>
+      <c r="H220" t="n">
         <v>32.99166666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8165,18 +9473,21 @@
         <v>115.4767</v>
       </c>
       <c r="G221" t="n">
+        <v>32.7666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>32.99333333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,18 +9511,21 @@
         <v>122.3712</v>
       </c>
       <c r="G222" t="n">
+        <v>32.72666666666671</v>
+      </c>
+      <c r="H222" t="n">
         <v>32.98666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8235,18 +9549,21 @@
         <v>111702.6687</v>
       </c>
       <c r="G223" t="n">
+        <v>32.70000000000004</v>
+      </c>
+      <c r="H223" t="n">
         <v>32.97833333333334</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8270,18 +9587,21 @@
         <v>83194.5539</v>
       </c>
       <c r="G224" t="n">
+        <v>32.67333333333337</v>
+      </c>
+      <c r="H224" t="n">
         <v>32.96833333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8305,18 +9625,21 @@
         <v>11</v>
       </c>
       <c r="G225" t="n">
+        <v>32.70000000000004</v>
+      </c>
+      <c r="H225" t="n">
         <v>32.97000000000001</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8340,18 +9663,21 @@
         <v>19023.0806673716</v>
       </c>
       <c r="G226" t="n">
+        <v>32.7266666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>32.97333333333334</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8375,18 +9701,21 @@
         <v>11</v>
       </c>
       <c r="G227" t="n">
+        <v>32.7666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>32.97333333333334</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8410,18 +9739,21 @@
         <v>28102.4897</v>
       </c>
       <c r="G228" t="n">
+        <v>32.76000000000004</v>
+      </c>
+      <c r="H228" t="n">
         <v>32.96166666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8445,18 +9777,21 @@
         <v>20000</v>
       </c>
       <c r="G229" t="n">
+        <v>32.74666666666671</v>
+      </c>
+      <c r="H229" t="n">
         <v>32.94833333333334</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8480,18 +9815,21 @@
         <v>520.0255</v>
       </c>
       <c r="G230" t="n">
+        <v>32.7466666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>32.935</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8515,18 +9853,21 @@
         <v>88109.1765</v>
       </c>
       <c r="G231" t="n">
+        <v>32.72000000000003</v>
+      </c>
+      <c r="H231" t="n">
         <v>32.91</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8550,18 +9891,21 @@
         <v>22314.9011</v>
       </c>
       <c r="G232" t="n">
+        <v>32.6266666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>32.87</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8585,18 +9929,21 @@
         <v>7500.9115</v>
       </c>
       <c r="G233" t="n">
+        <v>32.53333333333337</v>
+      </c>
+      <c r="H233" t="n">
         <v>32.83333333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8620,18 +9967,21 @@
         <v>11</v>
       </c>
       <c r="G234" t="n">
+        <v>32.52666666666671</v>
+      </c>
+      <c r="H234" t="n">
         <v>32.82</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8655,18 +10005,21 @@
         <v>7186.5357</v>
       </c>
       <c r="G235" t="n">
+        <v>32.46000000000004</v>
+      </c>
+      <c r="H235" t="n">
         <v>32.79166666666666</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8690,18 +10043,21 @@
         <v>55924.8012</v>
       </c>
       <c r="G236" t="n">
+        <v>32.4666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>32.79333333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8725,18 +10081,21 @@
         <v>1251.128</v>
       </c>
       <c r="G237" t="n">
+        <v>32.40666666666671</v>
+      </c>
+      <c r="H237" t="n">
         <v>32.77166666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8760,18 +10119,21 @@
         <v>11</v>
       </c>
       <c r="G238" t="n">
+        <v>32.40000000000004</v>
+      </c>
+      <c r="H238" t="n">
         <v>32.76333333333334</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8795,18 +10157,21 @@
         <v>167.0463</v>
       </c>
       <c r="G239" t="n">
+        <v>32.3666666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>32.73833333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8830,18 +10195,21 @@
         <v>7821.312</v>
       </c>
       <c r="G240" t="n">
+        <v>32.30000000000004</v>
+      </c>
+      <c r="H240" t="n">
         <v>32.715</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8865,18 +10233,21 @@
         <v>49955.3857</v>
       </c>
       <c r="G241" t="n">
+        <v>32.22000000000003</v>
+      </c>
+      <c r="H241" t="n">
         <v>32.69</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8900,18 +10271,21 @@
         <v>138117.7916</v>
       </c>
       <c r="G242" t="n">
+        <v>32.1066666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>32.65666666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8935,18 +10309,21 @@
         <v>1903.7784</v>
       </c>
       <c r="G243" t="n">
+        <v>32.03333333333337</v>
+      </c>
+      <c r="H243" t="n">
         <v>32.625</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8970,18 +10347,21 @@
         <v>10</v>
       </c>
       <c r="G244" t="n">
+        <v>32.02666666666669</v>
+      </c>
+      <c r="H244" t="n">
         <v>32.615</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9005,18 +10385,21 @@
         <v>101894.194</v>
       </c>
       <c r="G245" t="n">
+        <v>32.00666666666669</v>
+      </c>
+      <c r="H245" t="n">
         <v>32.60333333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9040,18 +10423,21 @@
         <v>21</v>
       </c>
       <c r="G246" t="n">
+        <v>32.06000000000002</v>
+      </c>
+      <c r="H246" t="n">
         <v>32.60666666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9075,18 +10461,21 @@
         <v>4133.0699</v>
       </c>
       <c r="G247" t="n">
+        <v>32.15333333333335</v>
+      </c>
+      <c r="H247" t="n">
         <v>32.61</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9110,18 +10499,21 @@
         <v>10</v>
       </c>
       <c r="G248" t="n">
+        <v>32.24666666666668</v>
+      </c>
+      <c r="H248" t="n">
         <v>32.60833333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9145,18 +10537,21 @@
         <v>113858.2824</v>
       </c>
       <c r="G249" t="n">
+        <v>32.21333333333335</v>
+      </c>
+      <c r="H249" t="n">
         <v>32.59666666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9180,18 +10575,21 @@
         <v>11</v>
       </c>
       <c r="G250" t="n">
+        <v>32.30000000000002</v>
+      </c>
+      <c r="H250" t="n">
         <v>32.60166666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9215,18 +10613,21 @@
         <v>17160.9376</v>
       </c>
       <c r="G251" t="n">
+        <v>32.28000000000002</v>
+      </c>
+      <c r="H251" t="n">
         <v>32.59833333333334</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9250,18 +10651,21 @@
         <v>11</v>
       </c>
       <c r="G252" t="n">
+        <v>32.36000000000002</v>
+      </c>
+      <c r="H252" t="n">
         <v>32.60166666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9285,18 +10689,21 @@
         <v>570.8513</v>
       </c>
       <c r="G253" t="n">
+        <v>32.36666666666668</v>
+      </c>
+      <c r="H253" t="n">
         <v>32.60000000000001</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9320,18 +10727,21 @@
         <v>86851.1387</v>
       </c>
       <c r="G254" t="n">
+        <v>32.42000000000001</v>
+      </c>
+      <c r="H254" t="n">
         <v>32.60333333333334</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9355,18 +10765,21 @@
         <v>378588.0117</v>
       </c>
       <c r="G255" t="n">
+        <v>32.46666666666668</v>
+      </c>
+      <c r="H255" t="n">
         <v>32.60166666666667</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9390,18 +10803,21 @@
         <v>95711.2559</v>
       </c>
       <c r="G256" t="n">
+        <v>32.54000000000001</v>
+      </c>
+      <c r="H256" t="n">
         <v>32.605</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9425,18 +10841,21 @@
         <v>78230.1553</v>
       </c>
       <c r="G257" t="n">
+        <v>32.62666666666668</v>
+      </c>
+      <c r="H257" t="n">
         <v>32.60333333333334</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9460,18 +10879,21 @@
         <v>54774.5356</v>
       </c>
       <c r="G258" t="n">
+        <v>32.72666666666668</v>
+      </c>
+      <c r="H258" t="n">
         <v>32.61</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9495,18 +10917,21 @@
         <v>15123.7169</v>
       </c>
       <c r="G259" t="n">
+        <v>32.76000000000001</v>
+      </c>
+      <c r="H259" t="n">
         <v>32.61166666666666</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9530,18 +10955,21 @@
         <v>11</v>
       </c>
       <c r="G260" t="n">
+        <v>32.82000000000001</v>
+      </c>
+      <c r="H260" t="n">
         <v>32.61666666666667</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9565,18 +10993,21 @@
         <v>17329.3937</v>
       </c>
       <c r="G261" t="n">
+        <v>32.84000000000002</v>
+      </c>
+      <c r="H261" t="n">
         <v>32.62</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9600,18 +11031,21 @@
         <v>34896.3238</v>
       </c>
       <c r="G262" t="n">
+        <v>32.87333333333335</v>
+      </c>
+      <c r="H262" t="n">
         <v>32.62666666666667</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9635,18 +11069,21 @@
         <v>30860.2094</v>
       </c>
       <c r="G263" t="n">
+        <v>32.91333333333335</v>
+      </c>
+      <c r="H263" t="n">
         <v>32.63333333333334</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9670,18 +11107,21 @@
         <v>65751.45789999999</v>
       </c>
       <c r="G264" t="n">
+        <v>33.00000000000002</v>
+      </c>
+      <c r="H264" t="n">
         <v>32.64166666666667</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9705,18 +11145,21 @@
         <v>80882.5217</v>
       </c>
       <c r="G265" t="n">
+        <v>33.02000000000002</v>
+      </c>
+      <c r="H265" t="n">
         <v>32.64333333333334</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9740,18 +11183,21 @@
         <v>54661.7311</v>
       </c>
       <c r="G266" t="n">
+        <v>33.04666666666669</v>
+      </c>
+      <c r="H266" t="n">
         <v>32.64000000000001</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9775,18 +11221,21 @@
         <v>15</v>
       </c>
       <c r="G267" t="n">
+        <v>33.06666666666669</v>
+      </c>
+      <c r="H267" t="n">
         <v>32.64000000000001</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9810,18 +11259,21 @@
         <v>11</v>
       </c>
       <c r="G268" t="n">
+        <v>33.10666666666669</v>
+      </c>
+      <c r="H268" t="n">
         <v>32.64333333333334</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9845,18 +11297,21 @@
         <v>35942</v>
       </c>
       <c r="G269" t="n">
+        <v>33.08666666666669</v>
+      </c>
+      <c r="H269" t="n">
         <v>32.63666666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9880,18 +11335,21 @@
         <v>11</v>
       </c>
       <c r="G270" t="n">
+        <v>33.12000000000003</v>
+      </c>
+      <c r="H270" t="n">
         <v>32.64666666666667</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9915,18 +11373,21 @@
         <v>35191.69</v>
       </c>
       <c r="G271" t="n">
+        <v>33.12000000000003</v>
+      </c>
+      <c r="H271" t="n">
         <v>32.65166666666667</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9950,18 +11411,21 @@
         <v>5272.5348</v>
       </c>
       <c r="G272" t="n">
+        <v>33.1066666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>32.65166666666667</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,18 +11449,21 @@
         <v>11</v>
       </c>
       <c r="G273" t="n">
+        <v>33.09333333333336</v>
+      </c>
+      <c r="H273" t="n">
         <v>32.65333333333334</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10020,18 +11487,21 @@
         <v>11</v>
       </c>
       <c r="G274" t="n">
+        <v>33.10000000000003</v>
+      </c>
+      <c r="H274" t="n">
         <v>32.65833333333334</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10055,18 +11525,21 @@
         <v>1412.0241</v>
       </c>
       <c r="G275" t="n">
+        <v>33.09333333333337</v>
+      </c>
+      <c r="H275" t="n">
         <v>32.66666666666667</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10090,18 +11563,21 @@
         <v>44181.46407185629</v>
       </c>
       <c r="G276" t="n">
+        <v>33.1066666666667</v>
+      </c>
+      <c r="H276" t="n">
         <v>32.68166666666668</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10125,18 +11601,21 @@
         <v>17035.3892</v>
       </c>
       <c r="G277" t="n">
+        <v>33.1066666666667</v>
+      </c>
+      <c r="H277" t="n">
         <v>32.69000000000001</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10160,18 +11639,21 @@
         <v>40633.3191</v>
       </c>
       <c r="G278" t="n">
+        <v>33.04666666666671</v>
+      </c>
+      <c r="H278" t="n">
         <v>32.68500000000001</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10195,18 +11677,21 @@
         <v>2174.7239</v>
       </c>
       <c r="G279" t="n">
+        <v>32.98000000000004</v>
+      </c>
+      <c r="H279" t="n">
         <v>32.68</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10230,18 +11715,21 @@
         <v>117771.2672</v>
       </c>
       <c r="G280" t="n">
+        <v>32.86666666666671</v>
+      </c>
+      <c r="H280" t="n">
         <v>32.66166666666667</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10265,18 +11753,21 @@
         <v>15</v>
       </c>
       <c r="G281" t="n">
+        <v>32.85333333333337</v>
+      </c>
+      <c r="H281" t="n">
         <v>32.66166666666667</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10300,18 +11791,21 @@
         <v>21.9856</v>
       </c>
       <c r="G282" t="n">
+        <v>32.8266666666667</v>
+      </c>
+      <c r="H282" t="n">
         <v>32.66500000000001</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10335,18 +11829,21 @@
         <v>11</v>
       </c>
       <c r="G283" t="n">
+        <v>32.80000000000004</v>
+      </c>
+      <c r="H283" t="n">
         <v>32.66833333333334</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10370,18 +11867,21 @@
         <v>30.9658</v>
       </c>
       <c r="G284" t="n">
+        <v>32.81333333333338</v>
+      </c>
+      <c r="H284" t="n">
         <v>32.67166666666667</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10405,18 +11905,21 @@
         <v>12.5346</v>
       </c>
       <c r="G285" t="n">
+        <v>32.79333333333337</v>
+      </c>
+      <c r="H285" t="n">
         <v>32.67</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10440,18 +11943,21 @@
         <v>27712.481</v>
       </c>
       <c r="G286" t="n">
+        <v>32.72000000000003</v>
+      </c>
+      <c r="H286" t="n">
         <v>32.65000000000001</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10475,18 +11981,21 @@
         <v>83215.497</v>
       </c>
       <c r="G287" t="n">
+        <v>32.6666666666667</v>
+      </c>
+      <c r="H287" t="n">
         <v>32.62666666666667</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10510,18 +12019,21 @@
         <v>10</v>
       </c>
       <c r="G288" t="n">
+        <v>32.66000000000003</v>
+      </c>
+      <c r="H288" t="n">
         <v>32.62833333333334</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10545,18 +12057,21 @@
         <v>20.202</v>
       </c>
       <c r="G289" t="n">
+        <v>32.63333333333336</v>
+      </c>
+      <c r="H289" t="n">
         <v>32.63</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10580,18 +12095,21 @@
         <v>10</v>
       </c>
       <c r="G290" t="n">
+        <v>32.5466666666667</v>
+      </c>
+      <c r="H290" t="n">
         <v>32.61666666666667</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10615,18 +12133,21 @@
         <v>22</v>
       </c>
       <c r="G291" t="n">
+        <v>32.46000000000003</v>
+      </c>
+      <c r="H291" t="n">
         <v>32.61666666666667</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10650,18 +12171,21 @@
         <v>11</v>
       </c>
       <c r="G292" t="n">
+        <v>32.38666666666669</v>
+      </c>
+      <c r="H292" t="n">
         <v>32.63</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10685,18 +12209,401 @@
         <v>5996</v>
       </c>
       <c r="G293" t="n">
+        <v>32.36666666666669</v>
+      </c>
+      <c r="H293" t="n">
         <v>32.64333333333334</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C294" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D294" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E294" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F294" t="n">
+        <v>18319.34</v>
+      </c>
+      <c r="G294" t="n">
+        <v>32.35333333333335</v>
+      </c>
+      <c r="H294" t="n">
+        <v>32.63666666666667</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C295" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D295" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E295" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F295" t="n">
+        <v>11</v>
+      </c>
+      <c r="G295" t="n">
+        <v>32.43333333333336</v>
+      </c>
+      <c r="H295" t="n">
+        <v>32.65500000000001</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C296" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D296" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E296" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F296" t="n">
+        <v>18234.294</v>
+      </c>
+      <c r="G296" t="n">
+        <v>32.42000000000002</v>
+      </c>
+      <c r="H296" t="n">
+        <v>32.65000000000001</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C297" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D297" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E297" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F297" t="n">
+        <v>50604.2572</v>
+      </c>
+      <c r="G297" t="n">
+        <v>32.39333333333335</v>
+      </c>
+      <c r="H297" t="n">
+        <v>32.66166666666668</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C298" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D298" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E298" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F298" t="n">
+        <v>37909.3646</v>
+      </c>
+      <c r="G298" t="n">
+        <v>32.36666666666669</v>
+      </c>
+      <c r="H298" t="n">
+        <v>32.66000000000001</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C299" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D299" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E299" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F299" t="n">
+        <v>44239.369</v>
+      </c>
+      <c r="G299" t="n">
+        <v>32.34000000000002</v>
+      </c>
+      <c r="H299" t="n">
+        <v>32.66500000000001</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C300" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D300" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E300" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F300" t="n">
+        <v>14411.744</v>
+      </c>
+      <c r="G300" t="n">
+        <v>32.31333333333335</v>
+      </c>
+      <c r="H300" t="n">
+        <v>32.67333333333335</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C301" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D301" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E301" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F301" t="n">
+        <v>11609.1248</v>
+      </c>
+      <c r="G301" t="n">
+        <v>32.35333333333336</v>
+      </c>
+      <c r="H301" t="n">
+        <v>32.68333333333335</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C302" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D302" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E302" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F302" t="n">
+        <v>17</v>
+      </c>
+      <c r="G302" t="n">
+        <v>32.39333333333336</v>
+      </c>
+      <c r="H302" t="n">
+        <v>32.69833333333335</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C303" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D303" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E303" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F303" t="n">
+        <v>35261.453</v>
+      </c>
+      <c r="G303" t="n">
+        <v>32.35333333333336</v>
+      </c>
+      <c r="H303" t="n">
+        <v>32.70833333333335</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-01 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N361"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-97165.6182</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>366664.3667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>363502.2660999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>251664.1919</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,24 +913,21 @@
         <v>333378.1663999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>31.7</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1002,24 +952,21 @@
         <v>392272.3817999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>31.6</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1046,20 +993,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,20 +1030,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,20 +1067,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1166,20 +1104,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1206,20 +1141,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1246,20 +1178,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,20 +1215,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1326,20 +1252,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1366,20 +1289,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1404,22 +1324,19 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1444,22 +1361,19 @@
         <v>412330.4707999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1484,22 +1398,19 @@
         <v>412285.4707999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1526,20 +1437,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1566,20 +1474,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1606,20 +1511,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1646,20 +1548,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1686,20 +1585,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1724,24 +1620,19 @@
         <v>352069.0349999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1768,20 +1659,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1808,20 +1696,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1848,20 +1733,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1888,20 +1770,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1928,20 +1807,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1968,20 +1844,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,20 +1881,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2048,20 +1918,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,20 +1955,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2128,20 +1992,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2168,20 +2029,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2208,20 +2066,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2248,20 +2103,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2288,20 +2140,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2328,20 +2177,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2368,20 +2214,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2408,20 +2251,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2448,20 +2288,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2488,20 +2325,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2528,20 +2362,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2568,20 +2399,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2608,20 +2436,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2648,20 +2473,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2688,20 +2510,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2728,20 +2547,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2768,20 +2584,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2808,20 +2621,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2848,20 +2658,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2888,20 +2695,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2928,20 +2732,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2968,20 +2769,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3008,20 +2806,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3048,20 +2843,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3088,20 +2880,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3128,20 +2917,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3168,20 +2954,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3208,20 +2991,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3248,20 +3028,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3288,20 +3065,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3328,20 +3102,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3368,20 +3139,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3408,20 +3176,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3448,20 +3213,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3488,20 +3250,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3528,20 +3287,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3568,20 +3324,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3608,20 +3361,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3648,20 +3398,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3688,20 +3435,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3728,20 +3472,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3768,20 +3509,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3808,20 +3546,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3848,20 +3583,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3888,20 +3620,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3928,20 +3657,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3968,20 +3694,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4008,20 +3731,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4046,22 +3766,21 @@
         <v>238881.8967999998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4088,20 +3807,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4128,20 +3844,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4168,20 +3881,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4208,20 +3918,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4248,20 +3955,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4288,20 +3992,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4328,20 +4029,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4368,20 +4066,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4408,20 +4103,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4448,20 +4140,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4488,20 +4177,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4528,20 +4214,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4568,20 +4251,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4608,20 +4288,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4648,20 +4325,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4688,20 +4362,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4728,20 +4399,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4768,20 +4436,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4808,20 +4473,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4848,20 +4510,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4888,20 +4547,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4928,20 +4584,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4966,22 +4619,21 @@
         <v>93614.22069999977</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5008,20 +4660,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5048,20 +4697,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5088,20 +4734,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5126,22 +4769,21 @@
         <v>26341.52149999977</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5168,20 +4810,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5206,22 +4845,21 @@
         <v>26324.52149999977</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5246,22 +4884,21 @@
         <v>26324.52149999977</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5286,22 +4923,21 @@
         <v>26342.52149999977</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5328,20 +4964,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5366,22 +4999,21 @@
         <v>10655.34289999977</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5408,20 +5040,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5446,22 +5075,21 @@
         <v>-50484.30870000023</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5486,22 +5114,21 @@
         <v>-50462.30870000023</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5526,22 +5153,21 @@
         <v>-50462.30870000023</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5568,20 +5194,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5606,22 +5229,21 @@
         <v>-50481.30870000023</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5648,20 +5270,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5688,20 +5307,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5728,20 +5344,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5768,20 +5381,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5808,20 +5418,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5846,22 +5453,21 @@
         <v>-104613.9609000002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5888,20 +5494,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5928,20 +5531,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5968,20 +5568,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6008,20 +5605,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6048,20 +5642,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6088,20 +5679,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6128,20 +5716,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6168,20 +5753,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6208,20 +5790,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6248,20 +5827,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6288,20 +5864,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6328,20 +5901,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6368,20 +5938,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6408,20 +5975,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6448,20 +6012,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6488,20 +6049,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6528,20 +6086,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6568,20 +6123,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6608,18 +6160,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6644,18 +6195,17 @@
         <v>280476.8413044774</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6680,18 +6230,15 @@
         <v>337193.2375044774</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6716,18 +6263,15 @@
         <v>337193.2375044774</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6754,16 +6298,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6790,16 +6331,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6826,16 +6364,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6862,16 +6397,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6898,16 +6430,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6934,16 +6463,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6970,16 +6496,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7006,16 +6529,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7042,16 +6562,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7078,16 +6595,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7112,18 +6626,15 @@
         <v>182446.3163044774</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7148,18 +6659,15 @@
         <v>79757.43460447743</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7184,18 +6692,15 @@
         <v>79827.75970447743</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7222,16 +6727,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7258,16 +6760,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7294,16 +6793,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7330,16 +6826,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7366,16 +6859,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7402,16 +6892,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7438,16 +6925,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7474,16 +6958,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7510,16 +6991,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7546,16 +7024,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7582,16 +7057,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7618,16 +7090,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7654,16 +7123,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7690,16 +7156,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7726,16 +7189,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7762,16 +7222,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7798,16 +7255,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7834,16 +7288,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7870,16 +7321,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7906,16 +7354,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7942,16 +7387,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7978,16 +7420,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8014,16 +7453,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8050,16 +7486,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8086,16 +7519,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8122,16 +7552,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8158,16 +7585,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8194,16 +7618,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8230,16 +7651,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8266,16 +7684,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8302,16 +7717,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8338,16 +7750,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8374,16 +7783,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8410,16 +7816,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8446,16 +7849,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8482,16 +7882,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8518,16 +7915,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8554,16 +7948,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8590,16 +7981,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8626,16 +8014,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8662,16 +8047,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8698,16 +8080,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8734,16 +8113,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8770,16 +8146,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8806,16 +8179,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8842,16 +8212,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8876,18 +8243,15 @@
         <v>98848.38150447742</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8914,16 +8278,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8950,16 +8311,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8986,16 +8344,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9022,16 +8377,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9058,16 +8410,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9092,18 +8441,15 @@
         <v>235138.9567044774</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9128,18 +8474,15 @@
         <v>235138.9567044774</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9164,18 +8507,15 @@
         <v>235138.9567044774</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9200,18 +8540,15 @@
         <v>241308.3344044774</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9236,18 +8573,15 @@
         <v>256354.2918044774</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9272,18 +8606,15 @@
         <v>199837.6351044774</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9308,18 +8639,15 @@
         <v>146700.1795044774</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9346,16 +8674,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9380,18 +8705,15 @@
         <v>134748.2069044774</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9418,16 +8740,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9454,16 +8773,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9490,16 +8806,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9526,16 +8839,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9562,16 +8872,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9598,16 +8905,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9634,16 +8938,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9670,16 +8971,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9706,16 +9004,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9742,16 +9037,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9778,16 +9070,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9814,16 +9103,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9850,16 +9136,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9886,16 +9169,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9922,16 +9202,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9958,16 +9235,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9994,16 +9268,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10030,16 +9301,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10066,16 +9334,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10102,16 +9367,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10138,16 +9400,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10174,16 +9433,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10210,16 +9466,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10246,16 +9499,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10282,16 +9532,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10318,16 +9565,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10354,16 +9598,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10390,16 +9631,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10426,16 +9664,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10462,16 +9697,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10498,16 +9730,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10534,16 +9763,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10570,16 +9796,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10606,16 +9829,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10642,16 +9862,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10678,16 +9895,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10714,16 +9928,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10750,16 +9961,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10786,16 +9994,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10822,16 +10027,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10858,16 +10060,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10894,16 +10093,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10930,16 +10126,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10966,16 +10159,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11002,16 +10192,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11038,16 +10225,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11074,16 +10258,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11110,16 +10291,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11146,16 +10324,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11182,16 +10357,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11218,16 +10390,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11254,16 +10423,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11290,16 +10456,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11326,16 +10489,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11362,16 +10522,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11398,16 +10555,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11434,16 +10588,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11470,16 +10621,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11506,16 +10654,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11542,16 +10687,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11578,16 +10720,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11614,16 +10753,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11650,16 +10786,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11686,16 +10819,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11722,16 +10852,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11758,16 +10885,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11794,16 +10918,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11830,16 +10951,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11866,16 +10984,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11902,16 +11017,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11938,16 +11050,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11974,16 +11083,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12010,16 +11116,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12046,16 +11149,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12082,16 +11182,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12118,16 +11215,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12154,16 +11248,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12190,16 +11281,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12226,16 +11314,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12262,16 +11347,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12298,16 +11380,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12334,16 +11413,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12370,16 +11446,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12406,16 +11479,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12442,16 +11512,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12478,16 +11545,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12514,16 +11578,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12550,16 +11611,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12586,16 +11644,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12622,16 +11677,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12658,16 +11710,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12694,16 +11743,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12730,16 +11776,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12766,16 +11809,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12802,16 +11842,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12838,16 +11875,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12874,16 +11908,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12910,16 +11941,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12946,16 +11974,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12982,16 +12007,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13018,16 +12040,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13054,16 +12073,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13090,16 +12106,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13126,16 +12139,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13162,16 +12172,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13198,16 +12205,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13234,16 +12238,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13270,16 +12271,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13306,16 +12304,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13342,16 +12337,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13378,16 +12370,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13414,16 +12403,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13450,16 +12436,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13486,16 +12469,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13522,16 +12502,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13558,16 +12535,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13594,16 +12568,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13630,16 +12601,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13666,16 +12634,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13702,16 +12667,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13738,16 +12700,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13774,16 +12733,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13810,16 +12766,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13846,16 +12799,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13882,16 +12832,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13918,16 +12865,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13954,18 +12898,15 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-01 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-97165.6182</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-97165.6182</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32.2</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>174554.1574</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +599,17 @@
         <v>424113.6488</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.6</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +642,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +675,15 @@
         <v>366664.3667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +712,15 @@
         <v>363502.2660999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,17 @@
         <v>366298.6723</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.2</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +792,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +825,15 @@
         <v>251664.1919</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +862,17 @@
         <v>251664.1919</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +901,17 @@
         <v>251664.1919</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +940,17 @@
         <v>350709.4190999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,7 +979,7 @@
         <v>333378.1663999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>31.7</v>
@@ -921,7 +987,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -952,11 +1018,9 @@
         <v>392272.3817999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>31.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1324,7 +1388,7 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1361,7 +1425,7 @@
         <v>412330.4707999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1398,7 +1462,7 @@
         <v>412285.4707999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -3766,11 +3830,9 @@
         <v>238881.8967999998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -4619,11 +4681,9 @@
         <v>93614.22069999977</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>31.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4769,11 +4829,9 @@
         <v>26341.52149999977</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>31.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4845,11 +4903,9 @@
         <v>26324.52149999977</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>31.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4884,11 +4940,9 @@
         <v>26324.52149999977</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>31.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4923,11 +4977,9 @@
         <v>26342.52149999977</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>31.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4999,11 +5051,9 @@
         <v>10655.34289999977</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>31.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5075,11 +5125,9 @@
         <v>-50484.30870000023</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>31.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5114,11 +5162,9 @@
         <v>-50462.30870000023</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>31.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5153,11 +5199,9 @@
         <v>-50462.30870000023</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5229,11 +5273,9 @@
         <v>-50481.30870000023</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5453,11 +5495,9 @@
         <v>-104613.9609000002</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>31.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -6195,16 +6235,18 @@
         <v>280476.8413044774</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
       <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -6230,11 +6272,15 @@
         <v>337193.2375044774</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6263,11 +6309,15 @@
         <v>337193.2375044774</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6300,7 +6350,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6333,7 +6387,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6366,7 +6424,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6399,7 +6461,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6432,7 +6498,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6465,7 +6535,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6498,7 +6572,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6531,7 +6609,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6564,7 +6646,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6597,7 +6683,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6626,11 +6716,15 @@
         <v>182446.3163044774</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6659,11 +6753,15 @@
         <v>79757.43460447743</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6692,11 +6790,15 @@
         <v>79827.75970447743</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6729,7 +6831,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6762,7 +6868,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6795,7 +6905,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +6942,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6861,7 +6979,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6894,7 +7016,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6927,7 +7053,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6960,7 +7090,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6993,7 +7127,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7026,7 +7164,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7059,7 +7201,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7092,7 +7238,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7125,7 +7275,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7158,7 +7312,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7191,7 +7349,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7224,7 +7386,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7257,7 +7423,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7290,7 +7460,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7323,7 +7497,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7356,7 +7534,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7389,7 +7571,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7422,7 +7608,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7455,7 +7645,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7488,7 +7682,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7521,7 +7719,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7554,7 +7756,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7587,7 +7793,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7620,7 +7830,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7653,7 +7867,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7686,7 +7904,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7719,7 +7941,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7752,7 +7978,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7785,7 +8015,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7818,7 +8052,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7851,7 +8089,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7884,7 +8126,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7917,7 +8163,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7950,7 +8200,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8237,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8016,7 +8274,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8049,7 +8311,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8082,7 +8348,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8115,7 +8385,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8148,7 +8422,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8181,7 +8459,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8214,7 +8496,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +8529,15 @@
         <v>98848.38150447742</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8280,7 +8570,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8313,7 +8607,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8346,7 +8644,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8379,7 +8681,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8412,7 +8718,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +8751,15 @@
         <v>235138.9567044774</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +8788,15 @@
         <v>235138.9567044774</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8507,11 +8825,15 @@
         <v>235138.9567044774</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8540,11 +8862,15 @@
         <v>241308.3344044774</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +8899,15 @@
         <v>256354.2918044774</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +8936,15 @@
         <v>199837.6351044774</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +8973,15 @@
         <v>146700.1795044774</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8676,7 +9014,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8705,11 +9047,15 @@
         <v>134748.2069044774</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8742,7 +9088,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8775,7 +9125,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8808,7 +9162,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8841,7 +9199,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8874,7 +9236,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8907,7 +9273,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8940,7 +9310,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8973,7 +9347,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9006,7 +9384,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9039,7 +9421,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9068,14 +9454,16 @@
         <v>310751.2809044774</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -9101,7 +9489,7 @@
         <v>330538.2404044774</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9134,7 +9522,7 @@
         <v>330538.2404044774</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9167,7 +9555,7 @@
         <v>327692.8892044774</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9200,7 +9588,7 @@
         <v>327692.8892044774</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9233,7 +9621,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9266,7 +9654,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9299,7 +9687,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9332,7 +9720,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9365,7 +9753,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9398,7 +9786,7 @@
         <v>356537.8076044774</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9431,7 +9819,7 @@
         <v>342258.7769044774</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9464,7 +9852,7 @@
         <v>342269.7769044774</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9497,7 +9885,7 @@
         <v>342269.7769044774</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9530,7 +9918,7 @@
         <v>342573.7769044774</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9563,7 +9951,7 @@
         <v>342573.7769044774</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9596,7 +9984,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9629,7 +10017,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9662,7 +10050,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9695,7 +10083,7 @@
         <v>298383.0690044775</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9728,7 +10116,7 @@
         <v>343146.9322044775</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9761,7 +10149,7 @@
         <v>293146.9322044775</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10157,7 +10545,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10190,7 +10578,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10223,7 +10611,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10256,7 +10644,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10289,7 +10677,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10322,7 +10710,7 @@
         <v>180676.5439718491</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10355,7 +10743,7 @@
         <v>199699.6246392207</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10520,7 +10908,7 @@
         <v>63498.9584392207</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10553,7 +10941,7 @@
         <v>41184.0573392207</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10586,7 +10974,7 @@
         <v>41184.0573392207</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -12907,6 +13295,6 @@
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-01 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>-97165.6182</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>32.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,17 +550,11 @@
         <v>174554.1574</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,17 +583,11 @@
         <v>424113.6488</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,15 +616,11 @@
         <v>367064.3667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,15 +649,11 @@
         <v>366664.3667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,15 +682,11 @@
         <v>363502.2660999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,17 +715,11 @@
         <v>366298.6723</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>32.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,15 +748,11 @@
         <v>286820.6903</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,15 +781,11 @@
         <v>251664.1919</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,17 +814,11 @@
         <v>251664.1919</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>31.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -901,17 +847,11 @@
         <v>251664.1919</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>31.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -940,17 +880,11 @@
         <v>350709.4190999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>31.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,17 +913,11 @@
         <v>333378.1663999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1022,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1059,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1133,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1170,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1207,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1281,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1318,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,15 +1243,11 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,15 +1276,11 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,15 +1309,11 @@
         <v>412330.4707999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1462,15 +1342,11 @@
         <v>412285.4707999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1499,15 +1375,11 @@
         <v>412241.4707999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,15 +1408,11 @@
         <v>412251.4707999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,15 +1441,11 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1610,15 +1474,11 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,15 +1507,11 @@
         <v>352069.0349999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1688,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1725,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1762,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1799,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1836,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1873,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1947,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1984,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2021,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2058,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2095,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2132,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2169,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2206,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2243,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2280,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2317,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2391,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2428,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2465,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2539,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2613,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2650,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2687,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2724,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2798,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2835,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2872,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2983,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3020,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3057,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3168,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3205,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3242,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3279,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3316,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3390,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3427,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3464,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3501,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3612,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3649,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3686,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3723,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4167,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4352,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4389,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4426,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4463,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4611,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4648,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4722,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4796,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4833,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4870,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4907,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4944,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4981,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5018,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5055,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5092,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5129,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5166,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5240,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5277,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5314,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5351,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5388,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5425,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5462,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5573,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5610,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5647,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5684,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5721,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5758,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5795,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5832,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5869,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5906,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5943,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5980,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6017,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6054,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6087,15 +5467,11 @@
         <v>284905.6585999998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6124,15 +5500,11 @@
         <v>409009.9268044774</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6161,15 +5533,11 @@
         <v>323696.7495044774</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6198,15 +5566,11 @@
         <v>280476.8413044774</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6239,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6276,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6313,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6387,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6461,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6498,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6535,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6609,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6646,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6683,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6720,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6757,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6794,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6868,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6905,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6938,15 +6226,11 @@
         <v>79146.07910447742</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6975,15 +6259,11 @@
         <v>58736.12970447743</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7053,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7090,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7127,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7164,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7201,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7238,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7275,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7308,15 +6556,11 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7345,15 +6589,11 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7423,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7460,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7497,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7534,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7571,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7608,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7682,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7719,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7756,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7830,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7867,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7904,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8015,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8089,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8126,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8163,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8237,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8274,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8311,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8348,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8385,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8422,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8459,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8496,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8533,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8570,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8607,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8644,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8681,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8718,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8755,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8829,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8940,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9014,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9051,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9088,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9125,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9162,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9236,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9273,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9310,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9347,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9421,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9454,16 +8470,14 @@
         <v>310751.2809044774</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -9489,7 +8503,7 @@
         <v>330538.2404044774</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9522,7 +8536,7 @@
         <v>330538.2404044774</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9555,7 +8569,7 @@
         <v>327692.8892044774</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9588,7 +8602,7 @@
         <v>327692.8892044774</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9621,7 +8635,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9654,7 +8668,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9687,7 +8701,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9720,7 +8734,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9753,7 +8767,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9786,7 +8800,7 @@
         <v>356537.8076044774</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9819,7 +8833,7 @@
         <v>342258.7769044774</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9852,7 +8866,7 @@
         <v>342269.7769044774</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9885,7 +8899,7 @@
         <v>342269.7769044774</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9918,7 +8932,7 @@
         <v>342573.7769044774</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9951,7 +8965,7 @@
         <v>342573.7769044774</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9984,7 +8998,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10017,7 +9031,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10050,7 +9064,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10083,7 +9097,7 @@
         <v>298383.0690044775</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10116,7 +9130,7 @@
         <v>343146.9322044775</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10149,7 +9163,7 @@
         <v>293146.9322044775</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10545,7 +9559,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10578,7 +9592,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10611,7 +9625,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10644,7 +9658,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10677,7 +9691,7 @@
         <v>180665.5439718491</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10710,7 +9724,7 @@
         <v>180676.5439718491</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10743,7 +9757,7 @@
         <v>199699.6246392207</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10908,7 +9922,7 @@
         <v>63498.9584392207</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10941,7 +9955,7 @@
         <v>41184.0573392207</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10974,7 +9988,7 @@
         <v>41184.0573392207</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -12195,7 +11209,7 @@
         <v>-613442.0430607793</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12228,7 +11242,7 @@
         <v>-648633.7330607793</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12261,7 +11275,7 @@
         <v>-653906.2678607793</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12294,7 +11308,7 @@
         <v>-653895.2678607793</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12327,7 +11341,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12360,7 +11374,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13284,10 +12298,14 @@
         <v>-830935.494488923</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J361" t="n">
+        <v>32.4</v>
+      </c>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
@@ -13295,6 +12313,6 @@
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ETZ.xlsx
+++ b/BackTest/2019-11-01 BackTest ETZ.xlsx
@@ -484,11 +484,17 @@
         <v>-97165.6182</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32.2</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>73578.2181</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.2</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>174554.1574</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>424113.6488</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.6</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,15 @@
         <v>367064.3667</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +677,15 @@
         <v>366664.3667</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +714,15 @@
         <v>363502.2660999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +751,15 @@
         <v>366298.6723</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,15 @@
         <v>286820.6903</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +825,15 @@
         <v>251664.1919</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +862,17 @@
         <v>251664.1919</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +901,17 @@
         <v>251664.1919</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +940,17 @@
         <v>350709.4190999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +979,17 @@
         <v>333378.1663999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1018,17 @@
         <v>392272.3817999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1061,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1098,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1135,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1168,17 @@
         <v>386505.7226999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1211,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1248,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1285,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1322,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1355,15 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1392,15 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1429,15 @@
         <v>412330.4707999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1466,15 @@
         <v>412285.4707999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1503,15 @@
         <v>412241.4707999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1540,15 @@
         <v>412251.4707999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1577,15 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1614,15 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1651,15 @@
         <v>352069.0349999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1692,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1729,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1766,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1803,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1840,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1877,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1914,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1951,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1988,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2025,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2062,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2099,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2136,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2173,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2210,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2247,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2284,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2321,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2358,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2395,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2432,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2469,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2506,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2543,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2580,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2617,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2654,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2691,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2728,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2765,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2802,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2839,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2876,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2913,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2950,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2987,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3024,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3061,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3098,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3135,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3172,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3209,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3246,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3283,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3320,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3357,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3394,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3431,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3468,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3505,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3542,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3579,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3616,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3653,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3690,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3727,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3764,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3801,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3838,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3875,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3912,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3949,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3986,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4023,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4060,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4097,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4134,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4171,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4208,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4245,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4282,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4319,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4356,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4393,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4430,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4467,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4504,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4541,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4578,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4615,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4652,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4689,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4726,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4763,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4800,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4837,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4874,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4911,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4948,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4985,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5022,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5059,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5096,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5133,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5170,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5207,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5244,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5281,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5318,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5355,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5392,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5429,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5466,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5503,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5540,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5577,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5614,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5651,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5688,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5725,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5762,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5799,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5836,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5873,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5910,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5947,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5984,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6021,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6058,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +6091,15 @@
         <v>284905.6585999998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +6128,15 @@
         <v>409009.9268044774</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +6165,15 @@
         <v>323696.7495044774</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6202,15 @@
         <v>280476.8413044774</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6243,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6280,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6317,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6354,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6391,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6428,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6465,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6502,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6539,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6576,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6613,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6650,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6687,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6724,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6761,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6798,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6835,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6872,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6909,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6942,15 @@
         <v>79146.07910447742</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6979,15 @@
         <v>58736.12970447743</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +7020,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +7057,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +7094,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +7131,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7168,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7205,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7242,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7279,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7312,15 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7349,15 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7390,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7427,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7464,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7501,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7538,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7575,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7612,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7649,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7686,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7723,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7760,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7797,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7834,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7871,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7908,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7945,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7982,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +8019,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +8056,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +8093,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +8130,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +8167,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +8204,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +8241,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +8278,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +8315,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +8352,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8389,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8426,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8463,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8500,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8537,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8574,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8611,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8648,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8685,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8722,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8759,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8796,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8833,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8870,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8907,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,14 +8940,16 @@
         <v>199837.6351044774</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
@@ -8041,7 +8975,7 @@
         <v>146700.1795044774</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +9008,7 @@
         <v>135614.2069044774</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +9041,7 @@
         <v>134748.2069044774</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +9074,7 @@
         <v>682677.8002044774</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +9107,7 @@
         <v>682677.8002044774</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +9140,7 @@
         <v>695958.9013044774</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +9173,7 @@
         <v>690155.6223044774</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +9206,7 @@
         <v>690155.6223044774</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +9239,7 @@
         <v>690189.1223044774</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +9272,7 @@
         <v>690189.1223044774</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +9305,7 @@
         <v>680278.4480044774</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +9338,7 @@
         <v>359678.3202044774</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +9371,7 @@
         <v>310751.2809044774</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -11209,7 +12143,7 @@
         <v>-613442.0430607793</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +12176,7 @@
         <v>-648633.7330607793</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +12209,7 @@
         <v>-653906.2678607793</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +12242,7 @@
         <v>-653895.2678607793</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +12275,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +12308,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11902,10 +12836,14 @@
         <v>-795781.087488923</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J349" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
@@ -11938,8 +12876,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12912,19 @@
         <v>-795770.087488923</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J351" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +13019,17 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>32.7</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +13058,17 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +13097,17 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +13136,17 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +13175,17 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +13214,17 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +13253,17 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12303,10 +13297,12 @@
       <c r="I361" t="n">
         <v>32.4</v>
       </c>
-      <c r="J361" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
